--- a/deuChatbot/research_result/table_to_json(3500_300).xlsx
+++ b/deuChatbot/research_result/table_to_json(3500_300).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:F401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20959,6 +20959,6826 @@
         </is>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 디자인조형학과의 실기시험에 대한 구체적인 정보를 포함하고 있다고 주장하지만, 실제로는 제공된 정보와 상반되는 내용을 담고 있습니다. 원본 텍스트에는 실기시험에 대한 상세한 정보가 포함되어 있으며, 생성된 응답은 이를 부정하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 모순되는 정보를 제공합니다. 원본 텍스트는 실기시험에 대한 구체적인 내용을 제공하는 반면, 생성된 응답은 그러한 정보가 없다고 주장합니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주제를 잘못 이해하고 있습니다. 원본 텍스트의 내용을 무시하고 다른 전공에 대한 정보만 언급하고 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 논리적인 흐름이 약해집니다. 원본 텍스트의 내용을 반영하지 않기 때문에 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 원본 텍스트의 내용을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 불일치로 인해 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘못 이해하고 있으며, 부적절한 내용을 포함하고 있습니다. 원본 텍스트의 주제를 잘못 해석하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용의 부정확성과 관련성 부족으로 인해 전체적으로 혼란스러울 수 있습니다. 
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>0.6755062107350557</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>현재 제공된 정보에는 디자인조형학과의 실기시험에 대한 구체적인 내용이 포함되어 있지 않습니다. 다른 전공이나 학과의 실기시험에 대한 정보만 포함되어 있습니다.
+따라서, 디자인조형학과의 실기시험에 대해 설명드리려면 추가 정보가 필요합니다. 디자인조형학과의 실기시험은 일반적으로 그림 그리기, 모델링, 색채 이론 등의 실습을 포함할 수 있습니다.
+만약 더 구체적인 내용이 필요하다면, 해당 학교나 대학의 공식 웹사이트를 참조해보시는 것이 좋습니다. "https://ipsi.deu.ac.kr/main.do" 링크를 통해 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보를 대부분 정확하게 반영하고 있습니다. 그러나 '택1'이라는 표현은 원문에서 명시된 '각 1개씩 선정하여 연결된 주제를 당일 추첨'이라는 내용을 완전히 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 정보를 제공하고 있습니다. 그러나 '택1'이라는 표현이 원문과 약간의 차이를 보이므로 완전한 일관성은 아닙니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 요구하는 주요 정보와 관련이 깊고, 모든 핵심 요소를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, '택1'이라는 표현이 약간의 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 '택1'이라는 표현이 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 대체로 정확하지만, '택1'이라는 표현이 원문의 의미를 완전히 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 약간의 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 잘 맞지만, '택1'이라는 표현이 원문의 의도를 완전히 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하지만, '택1'이라는 표현이 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>0.8401248473913413</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목은 '기초디자인'과 '사고의 전환' 중 택1입니다.
+- **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+- **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로는 '잠자리와 저울'과 같은 주제가 될 수 있습니다.
+- **화지크기**: 켄트지3절 크기가 사용됩니다.
+- **시간**: 실기 시간은 5시간입니다.
+이 정보를 바탕으로 준비하시면 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 대회 목록을 정확하게 포함하고 있으며, 사실적으로 정확합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 모든 대회에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 대회에 대한 정보가 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>0.9137173730736745</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에는 다음과 같은 대회들이 있습니다.
+1. 배드민턴(남)의 경우:
+   - 한국중·고연맹회장기전국학생선수권대회
+   - 대한배드민턴협회장기전국종별배드민턴선수권대회
+   - 전국학교대항배드민턴선수권대회
+   - 전국종별배드민턴선수권대회
+   - 전국연맹종별배드민턴선수권대회
+   - 전국체육대회
+   - 각종국제대회 (주니어국제대회 포함)
+   - 광역시·도 협회장기 종별대회
+2. 축구(남)의 경우:
+   -춘계한국고등학교축구연맹전
+   -추계한국고등학교축구연맹전
+   -대한축구협회장배전국고등학교축구대회
+   -문화체육관광부장관기전국고등학교축구대회
+   -문화체육관광부장관배전국고등학교축구대회
+   -백운기전국고등학교축구대회
+   -전국고등축구리그(권역별고교축구리그)
+   -전국고등축구리그왕중왕전
+   -무학기전국고등학교축구대회
+   -청룡기전국고등학교축구대회
+   -백록기전국고등학교축구대회
+   -금강대기전국고등학교축구대회
+   -대통령금배전국고등학교축구대회
+   -금석배전국고등학생축구대회
+   -부산MBC전국고등학생축구대회
+   -K리그 U18 챔피언십
+   -K리그 U18 챔피언십왕중왕전
+이러한 대회의 성적을 인정받아 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 사실을 잘 반영하고 있으며, 주제A와 주제B의 항목들을 정확하게 나열하고 있습니다. 그러나 "피망 (당근)"이라는 표현은 원본 텍스트에 없는 정보로, 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 정보를 제공하고 있습니다. 주제 선정 및 추첨 방식에 대한 설명이 일관되며, 전반적으로 원본과 잘 맞아떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 실기시험의 주제와 추첨 방식에 대해 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, "피망 (당근)" 부분에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 그러나 약간의 중복된 표현이 있어 완전한 일관성에는 다소 부족함이 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, "피망 (당근)"이라는 추가 정보는 정확하지 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 약간의 부정확성과 어색함이 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, "피망 (당근)" 부분에서 의미가 약간 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우나, 일부 표현에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>0.9208184939241356</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에서는 주제A와 주제B 각각에서 1개씩 선정하여 연결된 주제를 당일 추첨을 통해 결정합니다.
+주제A에는 다음과 같은 항목들이 포함되어 있습니다:
+- 잠자리
+- 무궁화
+- 피망 (당근)
+- 고양이
+- 양파
+- 달팽이
+- 오렌지
+주제B에는 다음과 같은 항목들이 포함되어 있습니다:
+- 악보
+- 줄자
+- 스카치테이프
+- 자물쇠
+- 반코팅장갑
+- 저울
+- 얼음
+당일 추첨을 통해 주제A와 주제B 각각에서 1개씩 선정하여 연결된 주제를 결정합니다. 예시로는 "잠자리와 저울"과 같은 주제가 될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 출결 점수가 반영되지 않는다는 사실을 정확하게 반영하고 있으며, 추가적으로 출결 항목의 비율이 0%라는 정보도 제공하고 있습니다. 이는 원문과 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원문과 일관되며, 출결 점수가 반영되지 않는다는 주장을 일관되게 유지하고 있습니다. 추가 정보도 원문과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 직접적으로 관련이 있으며, 출결 점수의 반영 여부에 대한 질문에 대한 명확한 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 원문과의 연결이 명확합니다. 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 정확히 일치하며, 사실에 기반한 내용을 담고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원문과 의미적으로 일치하며, 적절한 맥락에서 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>0.732379073174975</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>동의대학교 학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 학생부교과 전형에서는 출결 점수가 반영되지 않습니다. 해당 전형 요소 반영 비율에서 출결 항목의 비율은 0%입니다.</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 모집 인원에 대한 정확한 정보를 제공하지 않고 있으며, 원본 텍스트에서 명시된 "17명"이라는 숫자를 완전히 무시하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 모집 인원이 17명이라고 명확히 언급하고 있지만, 생성된 응답은 그 정보를 부정하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 질문에 대한 직접적인 답변을 제공하지 않으며, 관련 정보가 부족합니다. 그러나 웹사이트를 방문하라는 제안은 어느 정도 관련성을 가지고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 관계가 명확하지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 모집 인원에 대한 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘 반영하지 못하고 있으며, 부적절한 해석을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 읽기 쉬운 문장으로 구성되어 있지만, 내용의 부정확성으로 인해 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>0.5548430172090809</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 인문사회과학대학의 국어국문학과에 대한 모집인원이 직접적으로 언급되어 있지 않습니다. 
+다군 수능(일반학생전형) 모집단위 및 모집인원 부분을 보면, 인문사회과학대학의 다른 학과들에 대한 모집인원은 제시되어 있지만 국어국문학과에 대한 정보는 없습니다.
+따라서 정확한 답변을 드리기 위해서는 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 최신 정보를 확인해 주세요.</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원문과 일치하며, 모집 인원과 전형에 대한 정보가 정확하게 반영되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원문과 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원문의 사실을 정확하게 반영하고 있으며, 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문의 의미와 맥락에 완전히 부합하며, 적절합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>0.8725190365444644</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학의 영어영문학과에서 다군 일반학생전형으로는 28명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 모집 인원 수를 110명으로 잘못 기재하고 있으며, 이는 원본 텍스트의 22명과 상충합니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충하는 정보를 제공하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 주제와 관련이 있으며, 간호학과의 모집 전형에 대한 정보를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, "정원 내 모집 인원"이라는 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 연결되어 있으며, 주제에 대한 일관된 설명을 제공합니다.
+6. Accuracy Score (1-5): 1
+   - 모집 인원 수에 대한 정보가 잘못되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 사실성과 정확성이 낮아 전반적인 품질이 떨어지지만, 관련성과 유창성은 어느 정도 유지되고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 의미적으로는 관련이 있지만, 잘못된 정보로 인해 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>0.7162171703167729</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과 나군 일반 학생 전형의 정원 내 모집 인원은 110명입니다.</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모든 점수와 등급이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제를 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, 약간의 공백이 있어 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 방식으로 작성되었습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>0.911306394804016</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다.
+- 등급 1 : 139점
+- 등급 2 : 131점
+- 등급 3 : 123점
+- 등급 4 : 115점
+- 등급 5 : 107점
+- 등급 6 : 99점
+- 등급 7 : 91점
+- 등급 8 : 83점
+- 등급 9 : 75점
+이 점수들은 각 등급별로 수능 영어 시험에서 얻은 점수를 나타냅니다.</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있다고 잘못된 정보를 제공하고 있습니다. 원문에서는 예술고 학생이 지원할 수 없다고 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 내용을 포함하고 있어 일관성이 없습니다. 원문에서 명시된 지원 불가능성을 무시하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 잘못된 정보로 인해 주제와의 관련성이 낮습니다. 원문에서의 핵심 주제를 왜곡하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 나름의 일관성을 가지고 있지만, 잘못된 정보로 인해 전체적인 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성 등에서 모두 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 의미적으로 일치하지 않으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 문장은 명확하게 작성되어 있어 이해하기는 쉽지만, 잘못된 정보로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>0.717544755814702</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원하는 것은 가능하지만, 지원 자격을 충족해야 합니다. 주요 조건은 다음과 같습니다:
+1. **6년 과정**: 농어촌(읍·면)지역에 소재한 중·고등학교에서 전 교육과정을 이수하고, 중·고등학교 재학기간 동안 본인 및 부모 모두가 농어촌 지역에 거주한 자여야 합니다.
+2. **12년 과정**: 농어촌(읍·면)지역 소재 학교에서 전 교육과정을 이수하고, 거주한 자입니다.
+따라서 예술고 학생이 해당 조건을 만족한다면 지원이 가능합니다. 하지만 예술고는 일반적으로 농어촌 지역에 위치하지 않으므로 12년 과정의 경우가 더 적합할 수 있습니다. 
+추가로, 서류 제출 시에는 다음과 같은 서류를 제출해야 합니다:
+- 지원자 본인의 가족관계증명서
+- 지원자 본인, 부모의 주민등록초본 (총 3부)
+- 중학교 학교생활기록부 
+- 고등학교 학교생활기록부
+이러한 서류를 준비하여 지원 자격을 확인하고 지원하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+2. Consistency Score (1-5): 5
+3. Relevance Score (1-5): 5
+4. Fluency Score (1-5): 5
+5. Coherence Score (1-5): 5
+6. Accuracy Score (1-5): 5
+7. Multidimensional Quality Score (1-5): 5
+8. Semantic Appropriateness Score (1-5): 5
+9. Understandability Score (1-5): 5
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>0.9190409862291827</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 218~221cm이고, 이 기록에 대한 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 출결 반영 비율이 12%라는 사실을 정확하게 반영하고 있습니다. 그러나 추가된 정보인 "학생부교과, 출결, 서류(경기실적) 항목에 대한 비중"은 원본 텍스트에 포함되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일치하는 부분이 있지만, 추가된 정보가 원본 텍스트와 일치하지 않기 때문에 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 출결 반영 비율에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 출결 반영 비율에 대한 설명이 일관되게 이어집니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 출결 반영 비율이 12%라는 정보는 정확하지만, 추가된 정보는 원본 텍스트에 명시되어 있지 않으므로 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이지만, 일부 정보의 추가로 인해 완전한 정확성과 일관성은 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트에 없는 정보를 포함하고 있어 약간의 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하지만, 추가된 정보로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>0.7299640991721668</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 경기지도학과에서는 출결 반영 비율이 12%입니다. 이는 전형요소 반영비율에서 학생부교과, 출결, 서류(경기실적) 항목에 대한 비중을 나타내는 값입니다.</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있습니다. 모집 인원과 학과명, 학년도 모두 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관성이 있으며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 완벽하게 반영하고 있으며, 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 모든 품질 차원에서 생성된 응답은 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완벽하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>0.9453230416226778</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 날짜와 요일을 정확하게 반영하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되었습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉽습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>0.547688296604983</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024년 1월 17일(수)에 있습니다.</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 수능 최저 학력 기준이 없다는 사실을 정확하게 반영하고 있으며, 다른 학과와의 비교를 통해 응용화학과의 기준이 없음을 명확히 하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 수능 최저 기준이 없다는 내용을 일관되게 전달하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 핵심인 수능 최저 기준에 대한 정보를 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 연결되어 있으며, 정보가 명확하게 전달되고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>0.5400575960651431</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 응용화학과의 수능 최저기준 정보가 제공된 데이터 내에서는 명시되어 있지 않습니다. 다른 학과들의 경우 '수능최저기준 없음'이라고 표기되어 있지만, 응용화학과에 대한 구체적인 수능 최저기준이 없다면 해당 기준은 존재하지 않는 것으로 보입니다.
+만약 더 자세한 정보를 원하시거나 확인이 필요한 경우에는 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도에 신설된 학과에 대한 정보가 사실과 다릅니다. 원본 텍스트에 명시된 학과들(심리학과, 스마트항만물류학과, 창업투자경영학과, 경기지도학과 등)은 포함되어 있지 않고, 잘못된 학과명(미래형자동차학과, 소프트웨어융합학과 등)이 언급되었습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 학과를 언급하고 있어 일관성이 없습니다. 원본 텍스트의 정보와 상충하는 내용이 포함되어 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 신설 학과에 대한 질문에 대한 답변을 시도하고 있지만, 제공된 정보가 원본 텍스트와 관련이 적고, 잘못된 정보를 포함하고 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 어느 정도 일관성을 가지고 있지만, 원본 텍스트와의 불일치로 인해 전체적인 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보가 포함되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 저하된 응답입니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 부분이 많아 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용의 정확성과 관련성 문제로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>0.6576583198503885</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과들은 다음과 같습니다:
+1. **공과대학 - 미래형자동차학과**
+2. **ICT융합공과대학 - 소프트웨어융합학과**
+이 외에도, 일부 단과대학에서는 새로운 학부가 추가되었습니다.
+- **예체능**에서 **제품디자인공학과**가 신설되었습니다.
+- **미래융합대학**의 경우, **라이프융합학부  - 신설 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)**가 추가되었습니다.
+따라서, 주요 신설 학과는 위와 같습니다.</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 서류와 면접의 비율을 정확하게 언급하고 있지만, "학생부 교과"와 "출결" 항목이 추가되어 있어 원본 텍스트의 정보와 일치하지 않습니다. 원본 텍스트에는 출결에 대한 언급이 없으며, "학생부 교과"라는 용어도 원본에 포함되어 있지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 전형요소 반영비율을 일부 포함하고 있지만, 추가된 정보(학생부 교과, 출결)가 원본과 일치하지 않아 일관성이 떨어집니다. 원본 텍스트의 정보와 상충하는 부분이 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 전형요소 반영비율에 대한 정보를 제공하고 있으며, 주제와 관련이 있습니다. 그러나 추가된 정보가 원본과 일치하지 않아 완전한 관련성을 보이지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 전형요소에 대한 정보를 나열하고 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다. 추가된 정보가 원본과의 논리적 흐름을 방해하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 정보를 포함하고 있지만, 잘못된 정보(출결 비율 등)가 포함되어 있어 정확성이 떨어집니다. 원본 텍스트의 정보와 일치하지 않는 부분이 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 일치성이 부족하며, 정보의 정확성과 일관성이 떨어집니다. 전반적으로 낮은 품질을 보입니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 전형요소 반영비율에 대한 정보를 제공하지만, 원본 텍스트와의 의미적 일치성이 부족합니다. 추가된 정보가 원본의 의미를 왜곡할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달됩니다. 그러나 일부 추가 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>0.827871996361932</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 학생부 교과: 70%
+- 출결: 12%
+- 서류: 70% (이 부분은 서류 평가에서 학생부 교과 성적 외 다른 서류를 포함한다는 것을 의미합니다)
+- 면접: 30%
+따라서, 이 전형에서는 학생부 교과와 서류의 비중이 높게 설정되어 있으며, 면접은 비교적 낮은 비율을 차지하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교에서 수능 가산점을 적용하는 모집단위를 잘못 기술하고 있습니다. 원문에서는 의료·보건·생활대학, 공과대학, ICT융합공과대학이 언급되었으나, 생성된 응답에서는 다른 학과들이 포함되어 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있어 일관성이 부족합니다. 원문에서 언급된 모집단위와 생성된 응답의 학과들이 서로 다르기 때문에 일관성 점수는 낮습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 수능 가산점과 관련된 정보를 제공하고 있지만, 원문에서 언급된 모집단위와는 관련이 없습니다. 따라서 관련성 점수는 중간 정도입니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 학과에 대한 정보를 제공하지만, 원문과의 연결이 부족하여 일관된 흐름이 떨어집니다. 따라서 일관성 점수는 중간 정도입니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제공된 정보와 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 생성된 응답이 원문과 일치하지 않기 때문에 전반적인 품질 점수는 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 수능 가산점에 대한 정보를 제공하지만, 원문과의 관련성이 떨어져 의미적으로 적절하지 않습니다. 따라서 의미 적절성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 따라서 이해 가능성 점수는 높습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>0.7088317162555325</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 수능 가산점을 적용하는 학과는 어디인지 알려주세요.</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>동의대학교에서 수능 가산점을 적용하는 학과들은 ICT융합공과대학의 컴퓨터공학과, 소프트웨어공학부, 인공지능학과, 전기공학과, 전자공학과, 디지털콘텐츠학과, 게임공학과, 영화학과 등이 있습니다. 또한, 예술디자인체육대학의 패션디자인학과에서도 수능 가산점을 적용하고 있습니다.
+만약 특정 학과에 대한 자세한 정보가 필요하시다면, 해당 학과의 성적 산출 예시나 지원 인원, 경쟁률 등을 확인하실 수 있습니다. 더 궁금하신 점이 있으시면 물어보세요!</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 수능 성적을 100% 반영한다고 명시된 원문과 상충합니다. 원문에서는 수능 성적이 100% 반영된다고 했지만, 생성된 응답에서는 각 영역별로 25%씩 반영된다고 설명하고 있어 사실과 다릅니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문은 수능 성적을 100% 반영한다고 명시하고 있지만, 생성된 응답은 각 영역별로 25%씩 반영된다고 하여 서로 모순되는 정보를 제공합니다.
+3. Relevance Score (1-5): 4  
+   - 설명: 생성된 응답은 원문에서 언급된 수능 성적 반영 방법에 대한 정보를 제공하고 있으나, 원문에서 강조한 100% 반영이라는 핵심 내용을 간과하고 있습니다. 그럼에도 불구하고 관련된 정보를 포함하고 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 원문과의 불일치로 인해 약간의 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 구조적으로 일관되지만, 원문과의 내용 불일치로 인해 전체적인 일관성이 떨어집니다. 원문과의 연결이 부족하여 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 사실적으로 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 원문에서는 수능 성적을 100% 반영한다고 했으나, 생성된 응답은 이를 잘못 해석하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 불일치가 있으며, 사실성, 일관성, 정확성에서 낮은 점수를 받습니다. 관련성은 높지만, 전반적인 품질은 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 의미적으로 원문과 일치하지 않기 때문에 적절성에서 중간 점수를 부여합니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조로 되어 있으나, 원문과의 불일치로 인해 혼란을 줄 수 있습니다. 그럼에도 불구하고 명확하게 전달되고 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>0.7520089460855988</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서는 수능 성적을 다음과 같이 반영합니다.
+- **반영 영역**: 국어(화법과작문 or 언어와매체), 수학(확률과통계 or 미적분 or 기하), 영어, 탐구(사회탐구 or 과학탐구 or 직업탐구 중 영역 관계없이 2개 과목)
+- **반영 비율**: 각 영역별로 25%씩 반영됩니다.
+따라서, 가군에서 수능 성적은 국어, 수학, 영어, 탐구 등 네 가지 영역을 각각 25%의 비율로 반영하게 됩니다.</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도 가군 실기고사 날짜에 대한 정보를 완전히 부정하고 있으며, 사실과 반대되는 내용을 포함하고 있습니다. 원본 텍스트에 명시된 날짜를 전혀 반영하지 않고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공하고 있습니다. 원본 텍스트는 특정 날짜를 명시하고 있지만, 생성된 응답은 그 정보를 부정하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 주제와 관련이 없으며, 질문에 대한 직접적인 답변을 제공하지 않고 있습니다. 원본 텍스트의 내용과는 전혀 관련이 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으나, 내용의 부적절함으로 인해 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와의 연결이 부족하여 일관성이 떨어집니다. 원본 텍스트의 정보와 관련이 없기 때문에 논리적인 흐름이 약합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 완전히 왜곡하고 있으며, 정확한 정보를 제공하지 않고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받고 있습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>0.6760929714490677</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 동의대학교 2024학년도 가군 실기고사 날짜에 대한 내용이 없습니다. 다른 관련 정보를 찾거나, "https://ipsi. deu. ac. kr/main. do" 웹사이트에서 공식 일정을 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 한의예과, 디자인조형학과, 체육학과, 경기지도학과가 제외된다는 사실을 잘못 전달하고 있으며, 레저스포츠학과와 태권도학과가 제외된다고 잘못 언급하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 제공하고 있습니다. 원본 텍스트에서 제외된 학과와 생성된 응답에서 언급된 학과가 서로 다릅니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 전형에 대한 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용인 제외된 학과에 대한 정보와는 관련이 적습니다. 따라서 관련성 점수는 중간 정도입니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 전반적으로 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 논리적 흐름이 약간 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 최하입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 낮은 점수를 받았으며, 특히 사실성과 정확성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>0.5952786616137925</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 수능(일반학생전형)에서 레저스포츠학과와 태권도학과는 제외됩니다. 
+따라서, 해당 전형에서는 전 모집단위가 수능 위주로 평가되며, 이에 대한 최저기준은 없습니다.</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 최저기준이 적용되지 않는다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 수능 최저기준이 적용되지 않는다는 점에서 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 주제를 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창한 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 내용이 일관되게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>0.8951878569114995</v>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. 
+다군 수능(일반학생전형)의 경우, "수능최저기준 없음"으로 표시되어 있습니다.
+따라서, 2024학년도 동의대의 다군 전형에서 수능 최저기준은 적용되지 않는 것으로 보입니다.</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과가 아동학과로 변경되었다고 정확하게 언급하고 있으며, 학부에서 학과로의 분리도 언급하고 있습니다. 그러나, 다른 학과의 변경 사항에 대한 정보는 포함되어 있지 않아 전체적인 사실성을 완벽하게 반영하지는 못합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과의 변경에 대한 정보는 일관되지만, 전체 목록에 대한 언급이 없기 때문에 일관성이 떨어집니다. 다른 학과의 변경 사항이 누락되어 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 주제와 관련이 깊으며, 동의대학교의 학과 변경 사항에 대한 정보를 직접적으로 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 명칭 변경과 분류 변경에 대한 설명이 명확합니다. 그러나 전체적인 맥락에서 다른 학과에 대한 정보가 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과의 변경에 대한 정확한 정보를 제공하고 있지만, 다른 학과의 변경 사항에 대한 정보가 누락되어 있어 정확성이 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있지만, 전체적인 정보의 포괄성이 부족하여 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 맥락에 적합합니다. 그러나 다른 학과에 대한 정보가 부족하여 의미의 완전성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 추가적인 정보가 부족하여 완전한 이해를 제공하지는 않습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>0.5425178591083538</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 "보육·가정상담학과"가 "아동학과"로 명칭이 변경되었습니다. 또한, 이 학과는 구분명에 따라 학부에서 학과로 분리된 것으로 보입니다.
+상세 내용은 다음과 같습니다:
+- 2023학년도: 보육·가정상담학과
+- 2024학년도: 아동학과
+이와 같이 명칭 변경 및 분류 변경이 이루어졌습니다. 더 자세한 정보는 공식 웹사이트를 참조하시기 바랍니다. https://ipsi.deu.ac.kr/main.do</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원서접수 마감일이 2024년 1월 6일(토) 18시라는 사실을 정확하게 반영하고 있으며, 추가적인 세부사항도 포함되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 마감일에 대한 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련된 추가 정보를 제공합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 연결되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>0.7746972528477455</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에 따르면 원서접수(인터넷) 마감일은 2024년 1월 6일까지입니다. 자세한 일정은 다음과 같습니다:
+- 원서접수(인터넷): 2024. 01. 03.(수)～2024. 01. 06.(토) 마감일 18시까지
+원서접수는 이 기간 내에 완료해야 하며, 마감일은 2024년 1월 6일입니다.</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 전형 요소 변화에 대한 정보가 일부 누락되어 있으며, '학생부종합(재직자전형)'이라는 전형은 원본 텍스트에 명시되어 있지 않습니다. 또한, '학생부종합(성인학습자(정원내·외)전형)'의 설명이 잘못되었습니다. 원본 텍스트에서는 '학생부종합(성인학습자전형)'으로 명시되어 있으며, 2024학년도에 대한 설명이 정확하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 부분이 많습니다. 특히, 전형의 이름과 서류 평가 비율에 대한 정보가 원본과 다르게 제시되어 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 전형 요소 변화에 대한 정보를 제공하고 있으나, 원본 텍스트의 모든 전형을 다루지 않고 일부 전형만 언급하고 있어 관련성은 있지만 완전하지 않습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 전형의 변화에 대한 설명이 있지만, 원본 텍스트의 구조와 흐름을 따르지 않아 일관된 논리적 흐름이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 다르게 서술되어 있으며, 전형의 이름과 평가 비율에 대한 정보가 부정확합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 부족함이 많아 다차원적으로 낮은 품질을 보입니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과 다르게 해석된 부분이 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 정보의 정확성과 일관성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>0.7231156827081436</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>2024학년도에 전형 요소 변화가 있는 전형으로는 학생부종합(성인학습자(정원내·외)전형)과 학생부종합(재직자전형)이 있습니다. 이 두 전형의 서류 평가 비율이 변경되었습니다.
+1. **학생부종합(성인학습자(정원내·외)전형)**:
+   - 2023년도: 서류 70%, 면접 30%
+   - 2024년도: 서류 60%, 면접 40%
+2. **학생부종합(재직자전형)**:
+   - 2023년도: 서류 70%, 면접 30%
+   - 2024년도: 서류 60%, 면접 40%
+이와 같이, 두 전형 모두 서류 평가 비율이 감소하고 면접 평가 비율이 증가하였습니다.</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 실기 비중이 70%라는 정보가 일관되게 전달되고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가적인 정보도 원본의 내용을 보완하는 형태로 제공되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하며, 실기 비중에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>0.799742832050311</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기 비중은 70%입니다. 이는 "전형요소 반영비율" 항목에서 확인할 수 있습니다. 자세한 내용은 다음과 같습니다:
+- **전형명**: 가군 실기/실적(일반학생전형)
+- **모집단위**: 레저스포츠학과, 태권도학과
+- **전형요소 반영비율**:
+  - 학생부 교과: 0%
+  - 출결: 0%
+  - 서류: 0%
+  - 면접: 0%
+  - 실기: 70%
+  - 수능: 30%
+따라서, 가군 실기/실적 전형에서 실기의 비중은 **70%**입니다.</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 세부 전공 목록을 정확하게 반영하고 있으며, 추가적인 설명도 원본의 내용과 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 전공의 구성과 관련된 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 세부 전공에 대한 설명이 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>0.8656091686995971</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과 중 라이프융합학부는 세부 전공으로 다음과 같이 구성되어 있습니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학
+3. 라이프생활문화학
+이 세부 전공들은 학생들이 다양한 삶의 질 향상을 위한 기술과 지식을 배우고, 실용적인 능력을 갖추는 데 초점을 맞추고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과에 대한 정보가 잘못되었습니다. 원본 텍스트에서는 체육학과와 레저스포츠학과가 언급되었으나, 생성된 응답에서는 경기지도학과의 배드민턴과 축구만을 언급하고 있습니다. 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 학과와 종목을 언급하고 있습니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 실기고사에 참여하는 학과에 대한 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용인 체육학과와 레저스포츠학과에 대한 언급이 없기 때문에 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성이 떨어지기 때문에 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 특정 종목에 대한 정보를 제공하지만, 원본 텍스트의 맥락과는 맞지 않기 때문에 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용의 정확성과 관련성이 떨어져 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>0.604737305077873</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>2024학년도 가군에서 실기고사를 치르게 되는 학과는 경기지도학과의 배드민턴(남)과 축구(남)입니다. 
+상세 정보를 보면, 경기지도학과는 다음과 같은 종목을 모집하고 있습니다:
+1. 배드민턴(남): 3명 모집
+2. 축구(남): 4명 모집
+따라서 실기고사를 치르게 되는 학과는 경기지도학과의 배드민턴(남)과 축구(남)입니다.</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모든 학과가 올바르게 나열되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가된 정보도 원본의 내용과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 실기/실적 위주 전형에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 내용이 일관되게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>0.7523262930243376</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형으로 모집되는 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과
+이러한 학과들은 실기/실적 위주 전형을 통해 모집됩니다. 지원하실 학과가 특정되어 있다면, 해당 학과의 특성에 맞는 준비를 하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 라이프융합학부가 제공하는 전공을 정확하게 나열하고 있으며, 전공의 내용도 적절하게 설명하고 있습니다. 그러나 "신설"이라는 표현이 전공명에 포함되어 있어 약간의 혼동을 줄 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 전공을 나열하고 있으며, 추가적인 설명도 원본의 내용을 잘 반영하고 있습니다. 다만, "신설"이라는 표현이 전공명에 포함되어 있어 약간의 일관성 문제를 유발할 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 전공에 대한 추가적인 설명도 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 "신설"이라는 표현이 전공명에 포함되어 있어 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 전공에 대한 설명이 자연스럽게 이어집니다. 다만, "신설"이라는 표현이 전공명에 포함되어 있어 약간의 논리적 흐름이 방해받을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 전공에 대한 설명도 정확합니다. 그러나 "신설"이라는 표현이 전공명에 포함되어 있어 약간의 정확성 문제를 유발할 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 "신설"이라는 표현이 전공명에 포함되어 있어 약간의 문제를 유발할 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 전공에 대한 설명도 적절합니다. 그러나 "신설"이라는 표현이 전공명에 포함되어 있어 약간의 의미적 부적절함이 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우나, "신설"이라는 표현이 전공명에 포함되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>0.9106783118095781</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부에서는 다음과 같은 전공을 제공하고 있습니다:
+1. 신설 (스타트업창업투자학)
+2. 뷰티비즈니스학 
+3. 라이프생활문화학
+이러한 세 가지 전공 분야를 통해 학생들은 창업과 투자, 뷰티 산업, 생활 문화 등 다양한 분야에서의 지식과 기술을 습득할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다는 사실을 언급하고 있지만, 농어촌학생전형에 대한 정보가 누락되어 있습니다. 또한, 특정 학교 유형에 대한 언급이 불명확하여 일부 사실이 왜곡된 것으로 보입니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, 질문에 대한 직접적인 답변이 부족하여 일관성이 떨어집니다. 특히, 농어촌학생전형에 대한 언급이 없어서 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 관련 정보를 제공하고 있지만, 질문의 맥락을 완전히 반영하지 못하고 있습니다. 질문이 특수목적고등학교 학생의 지원 가능성에 대한 것이므로, 관련 정보가 더 필요합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 유창하게 작성되었으나, 중국어로 작성되어 있어 한국어 사용자에게는 이해하기 어려울 수 있습니다. 문법적으로는 문제가 없지만, 언어의 일관성이 부족합니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 부족하여 일관성이 떨어집니다. 질문에 대한 명확한 답변이 없고, 정보가 분산되어 있어 전체적으로 일관된 메시지를 전달하지 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 농어촌학생전형에 대한 정보가 누락되어 있어 정확성이 떨어집니다. 또한, 특정 학교 유형에 대한 설명이 불명확합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 정보의 누락과 일관성 부족으로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 질문의 맥락과 일부 관련이 있지만, 전체적으로 질문에 대한 적절한 의미를 전달하지 못하고 있습니다. 특히, 언어의 차이로 인해 의미 전달이 어려워 보입니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 중국어로 작성되어 있어 한국어 사용자에게는 이해하기 어려울 수 있습니다. 내용은 명확하지만, 언어의 장벽으로 인해 이해도가 떨어집니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>0.5922153134531046</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>你是韩国学生吗？根据提供的信息，如果你是特殊目的高中（如科学高、国际高、外语高、艺术高、体育高或职业高中）的学生，你可以申请东国大学的一般学生招生类型。具体来说：
+- 科学高中, 国际高中, 外语高中: 可以申请
+- 艺术高中, 体育高中, 职业高中: 可以申请
+所以你作为特殊目的高中的学生是可以申请东国大学的一般学生招生类型的。如果有其他具体疑问，可以参考提供的详细信息或访问官网 "https://ipsi. deu.ac.kr/main.do" 获取更多信息。</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실을 전혀 반영하지 않고 있으며, 제공된 정보에 대한 직접적인 확인이 불가능하다는 잘못된 주장을 하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있어 일관성이 없습니다. 원본 텍스트는 특정 학과와 모집 인원을 명확히 언급하고 있지만, 생성된 응답은 이를 부정하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 질문에 대한 직접적인 답변을 제공하지 않으며, 관련 정보 대신 공식 홈페이지를 참조하라는 내용으로 대체하고 있습니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 문법적으로는 비교적 잘 작성되었으나, 내용의 부적절함으로 인해 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 3
+   - 응답은 일관된 구조를 가지고 있으나, 원본 텍스트와의 관련성이 떨어져서 전체적인 논리적 흐름이 약간 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 정확한 정보를 제공하지 않고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 여러 차원에서 모두 낮은 점수를 기록하고 있으며, 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 문장은 이해할 수 있으나, 내용이 원본 텍스트와 관련이 없기 때문에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>0.5713838960660617</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과에 대한 정보는 제공된 데이터로 직접 확인할 수 없습니다. 정확한 정보를 얻기 위해서는 공식 홈페이지 (https://ipsi.deu.ac.kr/main.do)를 참조하거나, 대학 입학처와 연락을 취해야 합니다. 해당 웹사이트에서 최신 모집 정보 및 학과별 모집 인원을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대 학생부교과 농어촌학생전형에 지원할 수 없다는 사실을 무시하고, 지원할 수 있다고 잘못된 정보를 제공합니다. 이는 원문과 상충하는 내용입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 완전히 모순되는 내용을 포함하고 있습니다. 원문에서는 지원할 수 없다고 명시하고 있지만, 생성된 응답에서는 지원할 수 있다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하지 않고, 관련 없는 정보와 질문을 포함하고 있습니다. 원문과 관련된 정보가 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 품질이 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원문과의 불일치로 인해 전체적인 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 다릅니다. 지원 자격에 대한 정보가 잘못되어 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 질문의 맥락과도 맞지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 문장은 이해하기 쉬운 구조를 가지고 있지만, 내용의 부정확성으로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>0.4238551807961614</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>你是韩国的学生吗？如果是的话，根据提供的信息，你可以申请东国大学的学生部教科农渔村学生选拔型。具体来说：
+- 特殊目的高中学生可以申请东国大学的农渔村学生选拔型。
+- 支持资格包括在农村（乡镇、面）地区中学期间完成了整个教育过程，并且本人及其父母（如果父母一方去世或离婚，则不在此限）在该农村地区居住。
+因此，如果你满足上述条件，那么你可以尝试申请东国大学的学生部教科农渔村学生选拔型。建议你仔细查看具体的申请要求和截止日期，并准备相应的材料进行申请。如果有任何疑问，可以访问“https://ipsi. deu. ac. kr/main. do”获取更多信息或直接咨询学校招生办公室。</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 구체적인 정보를 제공하고 있으나, 원본 텍스트에서는 해당 정보가 포함되어 있지 않다고 명시하고 있습니다. 따라서 생성된 응답은 사실과 일치하지 않으며, 여러 가지 부정확한 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 합격자 평균 성적에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 구체적인 성적 정보를 제시하고 있습니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 정보가 없음을 알리고 있지만, 생성된 응답은 구체적인 성적 정보를 제공하여 주제에서 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관계에서 비논리적인 점이 있습니다. 원본 텍스트와의 연결이 없기 때문에 완전한 일관성을 갖추지 못합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 원본 텍스트는 성적 정보가 없다고 명시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트와의 관계가 전혀 없기 때문에 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않습니다. 원본 텍스트는 정보가 없음을 알리는데, 생성된 응답은 구체적인 성적 정보를 제공하여 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>0.6121676713875134</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 합격자 평균 성적은 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 317.87
+- 영어 등급의 평균: 3.77
+- 수능 4개 영역 등급의 평균: 4.49
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 434.70
+이러한 정보를 바탕으로, 소프트웨어공학부의 합격자들은 비교적 높은 성적을 보여주고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보를 제공하고 있으나, 원본 텍스트에서는 해당 정보가 포함되어 있지 않다고 명시하고 있습니다. 따라서 생성된 응답은 사실과 일치하지 않으며, 여러 가지 부정확한 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 합격자 평균 성적에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 구체적인 성적 정보를 제시하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 정보가 없음을 알리고 있지만, 생성된 응답은 구체적인 성적 정보를 제공하여 주제와 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관계에서 비논리적인 부분이 있어 완전한 일관성을 보이지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서 제공되지 않는 정보를 제시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 관계에서 부정확하고 일관성이 없습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 정보를 제공합니다. 원본 텍스트의 주제와는 전혀 다른 내용을 담고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용의 정확성과 관련성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>0.6101323228017674</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 최초 합격자 평균 성적은 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 317.87
+- 영어 등급의 평균: 3.77
+- 수능 4개 영역 등급의 평균: 4.49
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 434.70
+이러한 정보를 바탕으로, 2024학년도 소프트웨어공학부 최초 합격자의 성적은 상당히 높은 수준임을 알 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 정보를 포함하고 있지만, 최초 합격자 등록 날짜와 관련된 정보가 추가되어 있으며, 이는 원본 텍스트에 명시되어 있지 않은 내용입니다. 따라서 일부 사실이 추가되었지만, 원본의 핵심 정보는 포함되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, 추가된 내용으로 인해 일관성이 떨어집니다. 특히 최초 합격자 등록에 대한 정보는 원본 텍스트에 없으므로 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 합격자 발표 일정과 관련된 정보를 제공하고 있으며, 주제와 관련성이 높습니다. 그러나 추가된 등록 정보는 원본 텍스트의 주제와 완전히 일치하지 않으므로 점수가 다소 낮아졌습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되었습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 잘 구성되어 있으며, 정보의 흐름이 논리적입니다. 그러나 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 정보를 포함하고 있지만, 추가된 내용으로 인해 정확성이 떨어집니다. 원본 텍스트에 없는 정보가 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있지만, 일부 사실의 추가로 인해 점수가 다소 낮아졌습니다. 유창성과 관련성은 높지만, 일관성과 정확성에서 약간의 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 대체로 일치하지만, 추가된 정보로 인해 의미가 약간 왜곡될 수 있습니다. 그러나 전반적으로 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되었습니다. 정보가 잘 정리되어 있어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>0.8467022429993094</v>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+1. 최초 합격자 발표 및 등록:
+   - 날짜: 2024년 2월 2일 (금) 14:00
+   - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+2. 최초 합격자 등록:
+   - 날짜: 2024년 2월 7일 (수) ~ 2024년 2월 13일 (화)
+   - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+3. 충원 합격자 발표 및 등록:
+   - 1차 발표: 2024년 2월 14일 (수) 09:00
+     - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+   - 1차 등록: 2024년 2월 14일 (수) 09:00 ~ 16:00
+   - 2차 발표: 2024년 2월 15일 (목) 09:00
+     - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+   - 2차 등록: 2024년 2월 15일 (목) 09:00 ~ 16:00
+4. 충원 합격자 발표 및 등록 (3차 이후):
+   - 날짜: 2024년 2월 15일 (목) 19:00 ~ 2024년 2월 20일 (화) 18시까지
+     - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+이 일정을 참고하여 합격자 발표 및 등록에 대한 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 면접고사의 일정에 대한 정보를 제공하지 않고, 질문 형식으로 바뀌어 있어 사실적 정확성이 떨어진다.
+2. Consistency Score (1-5): 2
+   - 응답은 원본 텍스트의 내용을 일관되게 반영하지 않으며, 질문 형식으로 변형되어 일관성이 부족하다.
+3. Relevance Score (1-5): 3
+   - 응답은 면접고사에 대한 질문을 포함하고 있지만, 원본 텍스트의 구체적인 일정 정보를 제공하지 않아 관련성이 떨어진다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 유창하게 작성되었으나, 중국어가 포함되어 있어 한국어 문맥에서 약간의 어색함이 있다.
+5. Coherence Score (1-5): 3
+   - 응답은 질문 형식으로 되어 있어 원본 텍스트와의 논리적 흐름이 약간 끊긴 느낌이 있다.
+6. Accuracy Score (1-5): 2
+   - 응답은 원본 텍스트의 정확한 정보를 전달하지 않으며, 일정에 대한 구체적인 내용이 누락되어 있다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 응답의 질이 낮으며, 사실성, 일관성, 정확성 모두 부족하다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 질문 형식이지만, 원본 텍스트의 의미와는 다소 동떨어져 있어 의미적으로 적절하지 않다.
+9. Understandability Score (1-5): 4
+   - 문장은 이해하기 쉬우나, 질문 형식으로 인해 원본 텍스트의 내용을 이해하는 데 혼란을 줄 수 있다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>0.3648339405326555</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 면접고사의 시간은 정확히 언제举行的面试是在什么时间进行的？
+</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 동의대 한의예과의 최저학력 기준이 없다는 사실을 정확하게 반영하고 있습니다. 추가적인 정보도 제공하고 있으나, 주된 사실에 대한 정확성은 유지되고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 서로 모순되는 정보가 없습니다. 원본의 내용을 잘 반영하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 한의예과의 최저학력 기준에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽힙니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 내용이 일관되게 연결되어 있습니다. 독자가 쉽게 이해할 수 있도록 잘 정리되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보나 누락된 내용이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 내용을 쉽게 파악할 수 있도록 잘 작성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>0.5908708089877166</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 한의예과에서는 수능최저기준이 없습니다. 따라서, 한의예과에 지원하려는 학생은 특정한 최저학력 기준을 충족시키지 않아도 됩니다.
+만약 더 자세한 정보가 필요하시다면, 제공된 링크를 참조해 보시거나 동의대학교의 공식 웹사이트를 방문하여 확인해보세요. https://ipsi.deu.ac.kr/main.do</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 정확하게 반영하고 있습니다. 추가적인 정보도 제공하고 있어 사실성을 잘 유지하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 수능 최저학력 기준이 없다는 내용을 반복적으로 강조하고 있습니다. 따라서 일관성이 매우 높습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 최저학력 기준에 대한 질문에 직접적으로 답변하고 있습니다. 추가적인 정보도 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽힙니다. 문장 구조도 잘 구성되어 있어 유창성이 뛰어납니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 따라서 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 차원에서 매우 높은 품질을 보여줍니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>0.566017785697409</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>정시 전형으로 지원할 때 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보로 확인하면, 가군 수능(일반학생전형)과 실기/실적(일반학생전형)의 경우 수능 최저학력 기준이 없습니다. 
+따라서 정시 전형으로 지원할 때 수능 최저학력 기준을 충족하지 않아도 지원 가능합니다.
+만약 더 자세한 정보가 필요하시다면, 해당 대학의 입학처 웹사이트를 방문하여 확인해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 주요 정보를 정확하게 반영하고 있습니다. 그러나 "이후에 추가적인 충원합격자는 개별 전화 통보를 통해 안내될 예정입니다."라는 문장은 원본 텍스트에 포함되어 있지 않은 정보입니다. 이로 인해 약간의 부정확성이 존재합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일정과 일치하지만, 추가적인 정보가 포함되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트에는 추가적인 충원합격자에 대한 언급이 없으므로, 이 부분에서 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제인 충원합격자 발표 일정에 직접적으로 관련이 있습니다. 모든 주요 포인트를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정에 대한 정보가 명확하게 전달됩니다. 그러나 추가 정보가 포함되어 있어 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 발표 일정에 대한 정보는 정확하지만, 추가적인 정보가 원본 텍스트에 없기 때문에 완전한 정확성은 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행되고 있지만, 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가적인 정보가 포함되어 있어 약간의 부적절함이 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 추가적인 정보로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>0.8889490154145985</v>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>2024년 충원합격자 발표 일정은 다음과 같습니다:
+- **1차 충원 합격자 발표**: 2024. 02. 14.(수) 09:00
+- **2차 충원 합격자 발표**: 2024. 02. 15.(목) 09:00
+이후에 추가적인 충원합격자는 개별 전화 통보를 통해 안내될 예정입니다.</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 정보를 완전히 무시하고 있으며, 실제 일정에 대한 언급이 없습니다. 따라서 사실성과 관련하여 매우 낮은 점수를 부여합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 명확한 발표 일정을 제공하고 있지만, 생성된 응답은 그 정보를 부정하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 주제와 관련이 없으며, 질문에 대한 직접적인 답변을 제공하지 않습니다. 따라서 관련성 점수는 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 비교적 잘 작성되었으나, 내용의 부적절함으로 인해 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와의 연결이 부족하여 일관성이 떨어집니다. 원본의 정보와 관련이 없기 때문에 논리적인 흐름이 약합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 발표 일정에 대한 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 문장은 이해할 수 있지만, 내용이 원본과 관련이 없기 때문에 전체적인 이해도가 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>0.3883195368293983</v>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서는 추가합격자 발표일에 대한 명시가 없습니다. 추가합격자 발표일은 일반적으로 대학마다 다른 날짜를 설정하므로, 정확한 일정을 확인하기 위해서는 해당 대학의 공식 웹사이트(https://ipsi. deu. ac. kr/main. do)를 참조하시거나 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 추가모집에 대한 명시적인 언급이 없다고 하지만, 원문에서는 추가모집에 대한 정보가 포함되어 있습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, 원문에서 제공하는 정보와는 다소 상충하는 부분이 있습니다. 예를 들어, 원문은 추가모집에 대한 구체적인 내용을 포함하고 있으나, 생성된 응답은 이를 부정하는 듯한 표현을 사용하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 정보를 제공하고 있으나, 원문에서 강조하는 추가모집의 구체적인 내용에 대한 언급이 부족합니다. 그럼에도 불구하고 관련된 정보가 포함되어 있어 점수는 4입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있어 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 연결된 구조를 가지고 있으며, 정보가 잘 정리되어 있습니다. 그러나 원문과의 연결성이 약간 떨어져 있어 점수는 4입니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 일치하지 않는 부분이 있어 정확성 점수는 3으로 평가합니다. 원문에서 명시된 추가모집의 내용이 누락되었습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 원문과의 일치성 및 정확성에서 부족함이 있어 전반적인 품질 점수는 3입니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과의 의미적 일치성이 떨어지며, 원문에서 강조하는 내용을 충분히 반영하지 못하고 있습니다. 따라서 점수는 3입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 내용이 원문과의 연결이 부족하여 혼란을 줄 수 있습니다. 따라서 점수는 4입니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>0.5126993632666175</v>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 추가모집에 대한 명시적인 언급은 없습니다. 그러나 특정 전형(예: 나군 수능(일반학생전형), 실기/실적(일반학생전형) 등)의 모집단위와 모집인원을 확인할 수 있습니다. 예를 들어, "게임공학과"는 최대 3명까지 선발 가능하며, "영화학과"는 1명 내외로 모집하고 있습니다.
+추가모집에 대한 자세한 정보는 해당 대학의 공식 웹사이트(https://ipsi. deu.ac.kr/main.do)를 참조하시거나, 입학처와 직접 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 평생학습자전형에 대한 정보가 아닌, 다른 전형에 대한 정보를 제공하고 있습니다. 지원 자격, 모집 단과대학, 최대 선발 가능인원 등은 원본 텍스트와 일치하지 않으며, 잘못된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트에서 언급된 모집단위, 지원 자격, 제출 서류 등과는 다른 내용을 포함하고 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 2  
+   - 생성된 응답은 평생학습자전형에 대한 정보가 아닌 다른 전형에 대한 설명을 포함하고 있어 원본 텍스트와의 관련성이 낮습니다. 주요 내용이 다르기 때문에 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성이 떨어지기 때문에 전체적인 평가에는 영향을 미칩니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 구조적으로는 일관성을 가지고 있으나, 원본 텍스트와의 내용 차이로 인해 전체적인 일관성이 떨어집니다. 각 항목이 나열되어 있지만, 주제가 일치하지 않아 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있어 정확성이 낮습니다. 특히 지원 자격과 제출 서류에 대한 정보가 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 전반적으로 생성된 응답은 사실성, 일관성, 관련성, 정확성에서 낮은 점수를 받았으며, 이러한 점들이 종합적으로 반영되어 다차원 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 내용을 포함하고 있어 의미적으로 부적절합니다. 주제가 다르기 때문에 의미 전달이 제대로 이루어지지 않았습니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용의 부적절성으로 인해 전체적인 이해도가 떨어질 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>0.6541114712229513</v>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 대학생이나 성인, 재직자를 대상으로 하는 입학 전형입니다. 주요 특징과 절차를 설명드리겠습니다.
+1. 지원 자격:
+   - 산업체 적용 범위: 국가·지방자치단체 및 공공단체(소속 직원의 경우), 근로기준법 제11조에 의거 상시근로자 5인 이상 사업체, 4대 보험 중 1개 이상 가입 사업체(창업·자영업자 포함)
+   - 재직기간: 2024년 3월 1일 기준으로 총 재직기간이 3년 이상
+2. 모집 단과대학 및 계열:
+   - 예를 들어, 미래융합대학의 인문사회계열에서 라이프융합학부가 모집단위로 나옵니다.
+3. 최대 선발 가능인원:
+   - 각 모집단위별로 정해진 인원 내에서 선발합니다. 예를 들어, 게임공학과는 3명 이내, 영화학과는 1명 이내 등으로 제한됩니다.
+4. 서류 제출 항목:
+   - 고교 졸업(예정)자: 학교생활기록부
+   - 검정고시 출신자: 합격증서 사본, 성적증명서, 학교생활기록부 대체 서류
+   - 외국고교 졸업(예정)자: 공증받은 외국고교 졸업증명서, 성적증명서, 학교생활기록부 대체 서류
+5. 면접 평가:
+   - 개별면접으로 진행되며, 1인당 10분 이내입니다.
+   - 학업역량과 전공적합성에 대한 질문이 주로 나옵니다.
+6. 동점자 처리 기준:
+   - 면접고사 성적 상위자 우선
+   - 서류평가 공동체역량 영역 성적 상위자 우선
+   - 서류평가 전공적합성 영역 성적 상위자 우선
+이러한 절차와 요구 사항을 참고하여 평생학습자전형에 지원하시면 됩니다. 자세한 내용은 공식 웹사이트에서 확인해 보시기 바랍니다. https://ipsi. deu. ac. kr/main. do</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 평생학습자전형의 지원자격에 대한 정보가 아닌, 산업체 적용 범위와 재직기간 산정에 대한 내용을 포함하고 있습니다. 이는 원본 텍스트와 전혀 관련이 없으며, 잘못된 정보를 제공합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 평생학습자전형의 지원자격에 대한 정보가 아닌 다른 내용을 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 부적절하여 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 내부적으로는 구조가 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 모든 품질 차원에서 매우 낮은 점수를 받습니다. 사실성, 일관성, 관련성, 정확성 모두 부족합니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 전체적으로는 이해하기 어렵습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>0.6661807711857832</v>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형의 지원 자격은 다음과 같습니다:
+1. 산업체 적용 범위:
+   - 국가·지방자치단체 및 공공단체 (소속 직원의 경우)
+   - 근로기준법 제11조에 의거 상시근로자 5인(사업주 포함) 이상 사업체
+   - 4대 보험 중 1개 이상 가입 사업체 (창업·자영업자 포함)
+2. 재직기간 산정:
+   - 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)이어야 함
+   - 재직기간은 제출한 지원 자격 증빙 서류 상으로 증명되는 기간만 산정
+   - 2개 이상의 산업체에 재직한 경우 총 재직기간은 합산하여 산정하되, 중복되는 기간은 이중으로 합산하지 않음
+   - 군 의무복무 경력도 재직기간으로 인정함
+이러한 자격을 갖춘 지원자는 평생학습자전형에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보는 포함하고 있지만, 구체적인 장소에 대한 언급이 없다는 점에서 사실과 일치하지 않습니다. 원본 텍스트는 입실시간에 대한 정보를 제공하고 있으나, 생성된 응답은 이를 무시하고 다른 정보를 제공하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 내용을 포함하고 있습니다. 원본 텍스트는 실기고사 대기실 및 입실시간에 대한 정보를 제공하지만, 생성된 응답은 장소에 대한 불확실성을 강조하고 있습니다. 이는 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사에 대한 질문에 대한 답변을 제공하고 있지만, 원본 텍스트의 핵심 정보인 입실시간에 대한 언급이 부족합니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다. 정보의 흐름이 매끄럽지 않아서 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하지 않으며, 특히 실기고사 대기실 및 입실시간에 대한 정보가 누락되어 있습니다. 이는 정확성 점수를 낮춥니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 특히 사실성, 일관성, 정확성에서 부족함이 드러났습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 핵심 정보를 놓치고 있어 의미 전달이 완벽하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 정보의 흐름이 매끄럽지 않아 일부 독자에게는 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>0.4249436565276771</v>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서는 실기고사에 대한 구체적인 장소는 언급되어 있지 않습니다. 따라서 정확한 장소를 알 수 없습니다. 
+입학사정관이 직접 평가하는 개별 면접인 경우, 면접장소는 각 모집단위별 입학사정관의 사무실일 가능성이 높습니다. 하지만 실제 장소는 공지나 안내서를 통해 확인해야 합니다.
+더 자세한 정보를 얻기 위해서는 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 최신 안내사항을 확인하시거나, 입학처에 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 구체적인 정보를 제공하지 않고, 일반적인 정보만을 언급하고 있습니다. 이는 원본 텍스트의 구체적인 사실과 일치하지 않으며, 정보의 정확성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 체육학과의 실기고사에 대한 정보가 없다고 주장하고 있습니다. 이는 원본 텍스트의 정보와 상충합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 체육학과의 실기고사에 대한 일반적인 정보를 제공하지만, 원본 텍스트의 구체적인 질문에 대한 답변으로는 적절하지 않습니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트와의 관련성이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않으며, 잘못된 정보가 포함되어 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답의 질이 낮으며, 사실성, 일관성, 정확성 모두에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트와의 관련성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>0.3773353114979332</v>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 체육학과의 실기고사와 관련된 내용이 없습니다. 체육학과의 실기고사는 일반적으로 해당 대학에서 실시되며, 구체적인 장소는 각 대학의 입학처 웹사이트나 공지사항을 통해 확인할 수 있습니다. 만약 더 자세한 정보를 원하시면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수시 충원합격자 발표가 전화로 개별 연락을 하지 않는다는 사실과 상반되는 내용을 포함하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공하고 있어 일관성이 없습니다. 원본에서는 전화 통보가 이루어지지 않는다고 명시하고 있지만, 생성된 응답에서는 전화 통보를 받을 수 있다고 주장하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 포함하고 있어 관련성이 떨어집니다. 원본의 핵심 내용과는 다소 동떨어진 정보가 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본과의 불일치로 인해 일관된 흐름을 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받고 있습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본의 의미와 맥락에 맞지 않는 내용을 포함하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>0.6577093040706807</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>2024년 수시 충원 합격자 발표 후에는 개별 전화 통보를 받을 수 있습니다. 하지만 정확한 일정은 아직 공지되지 않았습니다. 더 자세한 정보를 얻으려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조하거나 입학관리팀에 문의해보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 대체로 정확하게 반영하고 있으며, 수시모집 결과에 대한 정보가 포함되어 있지 않다는 점을 잘 전달하고 있습니다. 그러나 원본 텍스트가 한국어로 작성된 반면, 생성된 응답은 중국어로 되어 있어 언어적 차이가 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 일관성을 유지하고 있으며, 수시모집 결과에 대한 정보가 없다는 점을 강조하고 있습니다. 그러나 언어가 다르기 때문에 일관성의 측면에서 약간의 차이가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 수시모집 결과에 대한 정보가 없다는 점을 명확히 하고 있습니다. 또한, 추가적인 정보 제공을 위한 웹사이트 링크도 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본 텍스트와의 언어적 차이로 인해 한국어 사용자에게는 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 원본 텍스트와의 언어적 차이로 인해 일관성이 약간 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 수시모집 결과에 대한 정보가 없다는 점을 정확하게 전달하고 있습니다. 그러나 언어적 차이로 인해 정확성의 측면에서 약간의 차이가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받고 있습니다. 그러나 언어적 차이로 인해 약간의 제한이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있으며, 정보가 적절하게 전달되고 있습니다. 그러나 언어적 차이로 인해 의미 전달의 적절성이 약간 떨어질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 정보가 명확하게 전달되고 있습니다. 그러나 한국어 사용자에게는 언어적 차이로 인해 이해하는 데 약간의 어려움이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>0.7094290461845258</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>所提供的信息中并没有提到关于2023学年警察行政学系的自主招生结果。根据提供的上下文，主要描述了各个专业的招生类型、录取人数等信息，并没有包含具体的招生结果数据。
+如果您需要了解2023学年警察行政学系的具体招生结果，请访问以下网站以获取最新和详细的信息：
+https://ipsi.deu.ac.kr/main.do
+或者您可以直接联系学校招生办公室，他们能够提供最准确的招生结果信息。</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 정시모집 지원자가 수능에 응시하지 않으면 지원할 수 없다는 원문 내용을 왜곡하고 있습니다. 나군 학생부종합 전형에 대한 언급은 사실과 다르며, 수능 미응시로 지원할 수 있다는 주장은 잘못된 정보입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문은 수능에 응시하지 않으면 지원할 수 없다고 명확히 언급하고 있지만, 생성된 응답은 수능 미응시로도 지원이 가능하다고 주장하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 포함하고 있지만, 잘못된 정보를 바탕으로 하고 있어 주제와의 관련성이 낮습니다. 원문에서 명시한 조건을 무시하고 다른 전형에 대한 설명을 추가하여 주제를 벗어나고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 원문과의 관계가 명확하지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제시한 사실과 크게 다릅니다. 수능에 응시하지 않으면 지원할 수 없다는 사실을 무시하고 잘못된 정보를 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없습니다. 수능 미응시로 지원이 가능하다는 주장은 원문과 상반되는 내용입니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 원문과의 관계가 명확하지 않아 독자가 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>0.620125168955824</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 정시 모집에서 수능을 응시하지 않고도 지원 가능한 전형이 나군 학생부종합(평생학습자전형, 성인학습자전형, 재직자전형)에 해당합니다. 이 전형들은 고교 졸업 자격증이나 검정고시 합격 증명서 등을 통해 지원 자격을 갖출 수 있습니다.
+따라서 정시 모집에서 수능 응시를 하지 않아도, 위와 같은 전형을 통해 지원이 가능합니다. 그러나 이 경우에도 서류 평가와 면접 등 다양한 평가 과정을 거쳐야 합니다.</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지나도 정시 지원이 가능하다는 점을 언급하고 있지만, "평생학습자전형"과 "성인학습자전형"에 대한 정보는 원본 텍스트에서 제공된 내용과는 다소 차이가 있습니다. 원본 텍스트는 고교 유형별 지원 자격에 대한 정보를 제공하고 있으나, 생성된 응답은 특정 전형에 대한 세부 정보를 추가하여 혼란을 줄 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가된 정보가 원본의 내용과 일치하지 않거나 모순될 수 있는 부분이 있습니다. 특히, 특정 전형에 대한 언급이 원본 텍스트의 일반적인 지원 가능성에 대한 설명과 일관되지 않습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 고등학교 졸업 후 정시 지원 가능성에 대한 질문에 대해 관련된 정보를 제공하고 있습니다. 그러나 원본 텍스트의 핵심 내용인 "정시 지원 가능성"에 대한 직접적인 언급이 부족하여 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 전형에 대한 설명이 명확하게 나열되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 고등학교 졸업 후 정시 지원 가능성에 대한 정보를 제공하지만, 특정 전형에 대한 세부 사항이 원본 텍스트와 일치하지 않거나 추가적인 정보가 필요할 수 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 원본 텍스트와의 일관성 및 정확성에서 다소 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 특정 전형에 대한 추가 정보가 원본의 주제와 다소 어긋날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어질 경우 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>0.611212390049564</v>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>2024년 나군의 경우, 정시 모집은 학생부종합전형과 실기/실적(경기실적우수자전형) 외에 다른 전형으로 지원이 가능합니다. 고등학교 졸업한지 10년이 지났다면, 정시로 지원하기 위해서는 나군에서 제공하는 학생부종합전형인 '평생학습자전형' 또는 '성인학습자전형'을 통해 지원할 수 있습니다.
+이 두 전형의 지원 자격은 다음과 같습니다:
+1. **평생학습자전형**:
+   - 산업체 적용 범위: 국가·지방자치단체 및 공공단체, 근로기준법 제11조에 의거 상시근로자 5인(사업주 포함) 이상 사업체, 4대 보험 중 1개 이상 가입 사업체 (창업·자영업자 포함)
+   - 재직기간: 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)
+2. **성인학습자전형**:
+   - 지원 자격과 평생학습자전형인 유사합니다.
+따라서, 고등학교 졸업한지 10년이 지났다면, 나군에서 제공하는 '평생학습자전형' 또는 '성인학습자전형'을 통해 정시 지원이 가능합니다. 자세한 내용은 해당 모집단위의 지원 자격과 서류 제출 사항 등을 확인하시기 바랍니다.
+더 궁금하신 점이 있으시면 https://ipsi.deu.ac.kr/main.do 에 접속하여 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 일정과 세부사항이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>0.7425003791271851</v>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화) 입학안내 홈페이지에서 공고됩니다.
+2. **원서접수(인터넷)**: 2024년 1월 3일 (수)부터 6일 (토)까지 원서를 접수합니다. 마감 시간은 각각의 모집단위에 따라 다릅니다.
+3. **서류 제출**: 2024년 1월 3일 (수)부터 12일 (금)까지 서류를 제출할 수 있습니다. 서류 제출 방법은 접수사이트에서 우편발송용 표지를 출력하여 부착하거나 우편으로 발송하는 방식입니다.
+4. **&lt;가&gt;군 실기고사**: 레저스포츠학과와 태권도학과에서는 2024년 1월 16일 (화)에 실기고사를 치릅니다. 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 오후 2시 이후에 입학안내 홈페이지에서 확인할 수 있습니다.
+5. **&lt;나&gt;군 실기고사**: 디자인조형학과, 체육학과에서는 2024년 1월 17일 (수)에 실기고사를 치릅니다. 대기실 및 입실시간 안내는 마찬가지로 2024년 1월 12일 (금) 오후 2시 이후에 입학안내 홈페이지에서 확인할 수 있습니다.
+6. **합격자 발표 및 등록금 납부**: 
+   - 최초 합격자 발표: 2024년 2월 2일 (금) 오후 2시
+   - 최초 합격자 등록: 2024년 2월 7일 (수)부터 13일 (화)까지
+   - 충원 합격자 발표 및 등록: 
+     - 1차: 2024년 2월 14일 (수)
+     - 2차: 2024년 2월 15일 (목)
+     - 3차 이후: 2024년 2월 15일 (목) 오후 7시부터 2024년 2월 20일 (화) 오후 6시까지
+   - 충원 합격자 발표 및 등록은 각각의 일정에 따라 진행됩니다.
+이러한 일정을 참고하여 원서를 접수하고, 필요할 경우 서류를 제출하며, 실기고사를 치르는 등의 절차를 따르면 됩니다. 자세한 내용은 입학안내 홈페이지에서 확인하시거나, 궁금한 점이 있으면 학교에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 날짜와 절차에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 관련이 있으며, 모든 중요한 포인트를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>0.8786603335667129</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>동의대학교 가군 수능(일반학생전형) 및 실기/실적(일반학생전형)의 모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화)
+   - 입학 안내 홈페이지에서 공고
+2. **원서접수 (인터넷)**: 2024년 1월 3일 (수) ~ 2024년 1월 6일 (토), 마감일 18시까지
+   - 접수 사이트: http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com
+3. **서류 제출 (제출서류가 있는 경우)**: 2024년 1월 3일 (수) ~ 2024년 1월 12일 (금), 마감일 17시까지 도착
+   - 서류 제출 대상 및 방법은 입학 안내 홈페이지에서 확인
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**: 2024년 1월 16일 (화)
+   - 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14시 이후에 입학 안내 홈페이지에서 확인
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**: 2024년 1월 17일 (수)
+   - 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14시 이후에 입학 안내 홈페이지에서 확인
+6. **합격자 발표 및 등록금 납부**: 
+   - 최초 합격자 발표: 2024년 2월 2일 (금) 14시
+     - 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+7. **합격자 등록**: 
+   - 최초 합격자 등록: 2024년 2월 7일 (수) ~ 2024년 2월 13일 (화), 은행 마감 시간 내
+     - 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+8. **충원 합격자 발표 및 등록**: 
+   - 1차 충원 합격자 발표: 2024년 2월 14일 (수) 9시
+     - 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+   - 1차 충원 합격자 등록: 2024년 2월 14일 (수) 9시 ~ 16시
+     - 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+   - 2차 충원 합격자 발표: 2024년 2월 15일 (목) 9시
+     - 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+   - 2차 충원 합격자 등록: 2024년 2월 15일 (목) 9시 ~ 16시
+     - 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+   - 3차 이후 충원 합격자 발표: 2024년 2월 15일 (목) 19시 ~ 2024년 2월 20일 (화) 18시까지
+     - 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+이 일정을 참고하여 원서를 접수하고 서류를 제출하며 실기고사를 치르고 최종적으로 합격자 발표와 등록금 납부를 진행해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 미응시자가 지원할 수 없다는 사실을 부정하고 있으며, 이는 원문과 상충합니다. 원문에서는 수능 미응시자는 지원이 불가능하다고 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 정보를 제공하고 있습니다. 원문에서 수능 미응시자는 지원이 불가능하다고 명시되어 있는데, 생성된 응답은 이를 부정하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에 대한 정보를 제공하고 있으나, 수능 미응시자에 대한 잘못된 정보를 포함하고 있어 일부 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 수능 미응시자에 대한 정보가 잘못되어 있어 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 크게 다르며, 수능 미응시자가 지원할 수 없다는 중요한 사실을 잘못 전달하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 특히 사실성과 일관성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 의미적으로 일치하지 않으며, 잘못된 정보를 제공하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>0.832098871002639</v>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집에서 수능 미응시자도 지원이 가능한 전형은 없습니다. 모든 전형에서 수능 점수가 반영되며, 일부 전형에서는 수능 미적분 또는 기하 영역을 응시한 경우에 가산점이 부여됩니다.
+만약 특정 전형의 세부 사항이나 지원 자격에 대해 더 궁금하시다면 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해보시거나, 동의대학교 입학처로 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 전년도 전자공학과의 충원 합격에 대한 정보와는 전혀 관련이 없으며, 잘못된 정보를 포함하고 있습니다. 원문에서는 충원 합격 차수에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 2024년도에 대한 구체적인 차수와 일정을 제시하고 있습니다. 이는 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서는 충원 합격 차수에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 3차까지 이루어졌다고 주장하고 있습니다. 이는 명백한 불일치입니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 관련이 없습니다. 원문은 전년도 전자공학과의 충원 합격에 대한 정보에 집중하고 있지만, 생성된 응답은 2024년도 가군 실기/실적에 대한 정보로 주제가 완전히 다릅니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부적절함으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 관련성이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 모든 면에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 주제와 맥락이 맞지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 부적절함으로 인해 전체적인 이해도에 영향을 미칩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>0.475205087504721</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>2024 년도 가군 실기/실적(일반학생전형)의 경우, 충원 합격이 3차까지 이루어졌습니다. 각 차례별로 일정과 내용은 다음과 같습니다:
+1차:
+- 일정: 2024. 02. 15.(목) 09:00
+- 등록: 2024. 02. 15.(목) 09:00~16:00
+2차:
+- 일정: 2024. 02. 15.(목) 19:00~ 2024. 02. 20.(화) 18시까지
+- 등록: 개별 전화 통보 시 안내
+3차 이후:
+- 일정: 2024. 02. 20.(화) 19:00~ 
+- 등록: 개별 전화 통보 시 안내
+이러한 절차를 통해 충원 합격자들이 결정되었습니다.</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 입학관리팀의 전화번호가 포함되어 있다고 명시된 원본 텍스트와 상반된 내용을 담고 있습니다. 원본 텍스트에는 명확하게 전화번호가 제공되고 있으므로, 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트에 전화번호가 명시되어 있음에도 불구하고, 전화번호가 포함되어 있지 않다고 주장하고 있어 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 전화번호가 포함되어 있지 않다는 잘못된 주장을 하고 있어 관련성이 낮습니다. 원본 텍스트의 핵심 정보를 무시하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트와의 불일치로 인해 일관된 흐름을 유지하지 못하고 있습니다. 전화번호가 없다는 주장은 원본의 내용을 왜곡하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 완전히 잘못 전달하고 있습니다. 전화번호가 명시되어 있음에도 불구하고 이를 부정하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받고 있습니다. 전반적으로 원본 텍스트와의 관계가 부정적입니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘못 해석하고 있습니다. 전화번호가 없다는 주장은 원본의 의미를 왜곡하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로 이해할 수 있지만, 내용의 정확성 문제로 인해 혼란을 줄 수 있습니다. 원본 텍스트와의 불일치로 인해 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>0.6833949764318047</v>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 동의대학교 입학처의 전화번호가 포함되어 있지 않습니다. "https://ipsi.deu.ac.kr/main.do" 링크를 클릭하여 동의대학교 입학처 웹사이트를 방문하시면 전화번호 등을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 전화 통화가 되지 않는 경우에도 합격자 발표가 진행된다고 언급하고 있지만, 원문에서는 전화 연락이 두절되면 해당 지원자는 등록 의사가 없는 것으로 간주된다고 명시하고 있습니다. 이로 인해 사실관계에 큰 차이가 발생하므로 낮은 점수를 부여합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문에서는 전화 연락이 두절되면 등록 포기자로 처리된다고 명시되어 있으나, 생성된 응답은 합격자 발표가 진행된다고 하여 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문에서 강조하는 전화 연락의 중요성에 대한 언급이 부족합니다. 그러나 전반적으로 주제와 관련이 있으므로 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있어 완벽한 유창성에는 미치지 못합니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원문과의 차이로 인해 일관된 주제를 유지하는 데 어려움이 있습니다. 따라서 중간 점수를 부여합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제시된 사실과 상충되는 내용을 포함하고 있어 정확성 점수가 낮습니다. 원문에서의 조건과 결과가 잘못 해석되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답이 원문과의 일관성, 사실성, 정확성에서 부족함을 보이고 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문의 의미와 관련이 있지만, 원문에서의 중요한 조건을 간과하고 있어 의미적으로 완벽하게 적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원문과의 차이로 인해 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>0.6914179361404784</v>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대한 개별 전화 통보 시, 전화 통화가 되지 않는 경우에도 합격자 발표는 진행됩니다. 다만, 합격자 발표 후 등록금 납부 등의 절차를 따르게 됩니다. 따라서 전화 통화가 되지 않더라도 합격 사실을 확인하고 등록금 납부 등을 마무리해야 합니다.
+만약에 합격 사실을 확인하지 못한 경우, 입학관리팀에서 수령할 수 있는 고지서를 통해 합격자 발표 내용을 확인할 수 있습니다. 따라서 전화 통화가 되지 않더라도 적절히 대처하여 등록금 납부 등의 절차를 마무리하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 제출해야 할 서류에 대한 주요 정보를 포함하고 있으며, 대부분의 내용이 원본 텍스트와 일치합니다. 그러나 "고교 졸업증명서"와 같은 추가 서류에 대한 언급이 원본에 명시된 내용과 다소 차이가 있어 점수를 4로 평가했습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 내용을 반영하고 있지만, "최종 등록자에게만 요청되는" 부분이 원본의 맥락과 일치하지 않아 일관성이 떨어집니다. 따라서 점수를 3으로 평가했습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 제출해야 할 서류에 대한 정보를 명확하게 제공합니다. 따라서 점수를 5로 평가했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있어 점수를 4로 평가했습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 항목이 잘 정리되어 있습니다. 그러나 일부 내용이 원본과 다르게 표현되어 있어 완전한 일관성은 부족하여 점수를 4로 평가했습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대체로 정확하게 반영하고 있지만, 일부 세부사항에서 차이가 있어 점수를 4로 평가했습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 전반적으로 유용한 정보를 제공합니다. 그러나 일부 일관성과 정확성에서 부족함이 있어 점수를 4로 평가했습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 표현에서 다소 차이가 있어 점수를 4로 평가했습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었으나, 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있어 점수를 4로 평가했습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>0.7276586777364187</v>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 유형에 따라 다르게 요구됩니다. 주요 서류들은 다음과 같습니다:
+1. **6년 과정**:
+   - 지원자 본인의 가족관계증명서 1부
+   - 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+   - 중학교 학교생활기록부 1부
+   - 고등학교 학교생활기록부 1부
+2. **12년 과정**:
+   - 지원자 본인의 주민등록초본 1부
+   - 초등학교 학교생활기록부 1부
+   - 중학교 학교생활기록부 1부
+   - 고등학교 학교생활기록부 1부
+이 외에 추가로 필요한 서류는 최종 등록자에게만 요청되는 '고교 졸업증명서, 지원자 본인, 부모 초본 각 1부(총 3부)'입니다. 
+상세한 내용과 요구사항은 공식 홈페이지를 참조하시거나 문의해보시는 것이 좋습니다: https://ipsi. deu. ac. kr/main. do</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 서류 목록을 잘 반영하고 있으나, "교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급"이라는 추가 정보는 원본 텍스트에 포함되어 있지 않아 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 대체로 일치하지만, 추가된 정보로 인해 일관성이 떨어지는 부분이 있습니다. 원본 텍스트에 없는 정보가 포함되어 있어 혼란을 줄 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 필요한 서류에 대한 정보를 명확하게 전달하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 추가된 정보로 인해 약간의 흐름이 방해받을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, 추가된 정보로 인해 정확성이 다소 떨어질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으나, 일관성과 정확성에서 약간의 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 추가된 정보가 맥락에 맞지 않을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>0.8489246633588931</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원 시 제출해야하는 서류는 다음과 같습니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자)
+5. 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+이러한 서류를 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, '저소득 기회균등 전형'이 존재하지 않는다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 전형에 대한 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, 약간의 문장 구조 개선이 필요할 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 내용이 일관되게 흐릅니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되었습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>0.6898618822488954</v>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형은 선발하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 정시 모집에서 '저소득 기회균등 전형'이 따로 존재하지 않는다는 것을 확인할 수 있습니다. 정시 모집에 있어서 특정한 저소득 기회균등 전형이 없으므로, 일반적인 정시 모집을 통해 지원하시면 됩니다.
+만약 더 자세한 정보가 필요하다면, 해당 대학의 입학처 웹사이트(https://ipsi. deu. ac. kr/main. do)를 방문하여 최신의 전형 안내를 확인해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 최저등급에 대한 정보와 관련하여 잘못된 내용을 포함하고 있습니다. 원본 텍스트는 절사 여부에 대한 구체적인 정보가 없다고 명시하고 있지만, 생성된 응답은 2.5등급이 절사되어 3등급으로 처리된다고 잘못된 주장을 하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 내용을 담고 있습니다. 원본 텍스트는 절사 여부에 대한 정보가 없다고 명시하고 있으나, 생성된 응답은 절사에 대한 구체적인 내용을 제공하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보로 인해 주제에 대한 적절한 답변이 아닙니다. 원본 텍스트의 핵심 내용인 절사 여부에 대한 정보가 누락되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다. 원본 텍스트와의 연결이 약해 보입니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 절사 여부에 대한 잘못된 정보를 제공하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 관계가 부정확합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 다르게 해석되고 있으며, 잘못된 정보로 인해 의미가 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬운 편입니다. 그러나 내용의 정확성 문제로 인해 전체적인 이해도가 떨어질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>0.6470263847693595</v>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>4등급을 기준으로 한 수능 최저등급에서 사탐 2과목 평균산출을 한다고 나와 있습니다. 만약 2.5등급이 나오면 절사하여 3등급으로 처리됩니다.
+수능 영어영역 등급에 따른 점수 표에서는 4등급이 115점이고, 그보다 낮은 2.5등급은 절사되어 3등급의 점수인 107점을 받게 됩니다.
+따라서 2.5등급을 받았다면 실제 평균점수가 아닌 3등급의 점수인 107점을 기준으로 처리됩니다.</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 정시 충원 합격자 발표가 3차까지 이루어진다는 사실을 정확하게 반영하고 있으며, 각 발표 날짜도 올바르게 언급하고 있습니다. 그러나 3차 이후 발표에 대한 구체적인 내용이 누락되어 있어 완전한 정확성에는 다소 부족합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 정보를 제공하고 있습니다. 발표 일정과 차수에 대한 설명이 일치하지만, 3차 이후 발표에 대한 구체적인 언급이 부족하여 약간의 일관성 결여가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용과 직접적으로 관련이 있으며, 정시 충원 합격자 발표에 대한 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정에 대한 흐름이 명확합니다. 그러나 3차 이후 발표에 대한 설명이 부족하여 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 사실을 정확하게 반영하고 있지만, 3차 이후 발표에 대한 구체적인 내용이 누락되어 있어 완전한 정확성에는 다소 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 보이며, 사실성, 일관성, 관련성, 유창성에서 좋은 점수를 받았습니다. 그러나 일부 세부 사항의 누락으로 인해 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>0.7268838556705606</v>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>2024학년도 정시 충원 합격자 발표는 총 3차로 이루어집니다. 
+1차 발표는 2024년 2월 14일(수)에 있으며, 이어서 2024년 2월 15일(목)에는 2차 발표가 있습니다. 마지막으로 2024년 2월 15일(목) 이후에는 3차로 합격자 발표가 이루어집니다.
+이와 같이 총 3차에 걸쳐 정시 충원 합격자 발표가 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 4개 영역 등급이 4.6점일 때의 상황을 잘 설명하고 있으며, 평균 점수와 비교하여 개인의 성적이 평균보다 약간 높은 수준이라는 점을 언급하고 있습니다. 그러나 표준 편차에 대한 언급이 있지만, 원본 텍스트에서 제공된 정보와의 직접적인 연결이 부족하여 완전한 정확성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있지만, 정시모집군 변경과 같은 추가 정보를 포함하고 있어 원본 텍스트와의 일관성이 다소 떨어집니다. 원본 텍스트의 주요 포인트와는 다소 다른 방향으로 설명하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 핵심인 e-비즈니스학과의 정시 전형 추가 합격 가능성에 대해 직접적으로 다루고 있으며, 관련된 정보를 충분히 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있는 부분이 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 일부 문장에서 주제가 약간 전환되는 느낌이 있어 완전한 일관성은 부족할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 바탕으로 하여 개인의 성적에 대한 평가를 잘 하고 있지만, 표준 편차와 같은 추가적인 정보가 원본 텍스트와의 직접적인 연관성을 약간 떨어뜨립니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 잘 수행하고 있습니다. 그러나 일부 일관성 문제로 인해 완벽한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있으며, 적절한 정보를 제공합니다. 그러나 일부 추가 정보가 원본의 맥락과 다소 어긋날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어질 경우 이해하기 어려울 수 있는 부분이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>0.5521092211488549</v>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>2024학년도에 e비즈니스학과의 경우, 정시모집군 변경으로 인해 전형요소 반영비율이 수능 위주로 이루어진다고 볼 수 있습니다. 하지만 제공된 데이터는 특정 학과별 지원자의 평균 성적과 표준 편차를 기반으로 한 것이므로, 개인의 성적이 4.6일 때 정시 전형으로 추가 합격 가능 여부를 단정 짓기는 어렵습니다.
+개인의 성적이 4.6이면, 이는 평균보다 약간 높은 수준입니다. 그러나 표준 편차가 0.35라는 것을 고려하면, 이 점수는 상대적으로 좋은 성적일 수 있습니다. 하지만 정시 전형으로 추가 합격 가능 여부는 지원자의 경쟁률과 모집 인원, 지원 인원 등 다양한 요인에 따라 결정됩니다.
+따라서, 개인의 성적이 4.6이면, 이는 좋은 성적일 수 있지만, 정시 전형으로 추가 합격 가능 여부를 단정 짓기 위해서는 더 많은 정보가 필요합니다. 예를 들어, 해당 모집단위의 경쟁률과 모집 인원, 지원 인원 등을 고려해야 합니다.
+더 자세한 정보를 얻으시려면, "https://ipsi.deu.ac.kr/main.do" 링크를 참조해 주시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 제시된 수능 4개 영역 등급 평균이 5.21로 언급되었으나, 원본 텍스트에서는 평균이 4.53이라고 명시되어 있습니다. 이는 명백한 사실 오류입니다. 또한, 표준 편차와 관련된 정보도 원본 텍스트에 포함되어 있지 않아, 사실적 정확성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 수능 4개 영역 등급 평균에 대한 정보가 상충합니다. 원본 텍스트는 5.3의 등급이 합격하기 어려울 수 있다고 언급하는 반면, 생성된 응답은 긍정적인 영향을 줄 수 있다고 주장합니다. 이러한 상반된 정보는 일관성을 저해합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 e비즈니스학과의 합격 가능성에 대한 질문에 대해 관련된 정보를 제공하고 있습니다. 그러나 원본 텍스트의 구체적인 데이터와는 다소 차이가 있어, 완전한 관련성을 보장하지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답에서 제공된 수치와 정보는 원본 텍스트와 일치하지 않으며, 이는 정확성에 큰 영향을 미칩니다. 특히, 수능 4개 영역 등급 평균이 잘못 제시되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 따라서 전반적인 품질이 낮다고 평가할 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 의미와는 다소 차이가 있어 의미적으로 완벽하게 적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 설명이 포함되어 있습니다. 그러나 일부 정보의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>0.6614865446980263</v>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 인문사회과학대학 e비즈니스학과에 대한 최초합격자들의 수능 4개 영역 등급 평균을 살펴보겠습니다.
+e비즈니스학과는 다음과 같은 데이터가 있습니다:
+- 수능 4개 영역 등급 평균: 5.21
+- 수능 4개 영역 등급 표준 편차: 0.33
+수능 4개 영역 등급이 5.3인 경우, 이는 평균보다 약간 높은 점수입니다. 표준 편차를 고려하면, 5.3은 약 1.27 표준편차 이상의 높은 점수가 됩니다.
+이러한 점수는 경쟁률과 모집 인원을 고려할 때 최초 합격 가능성에 긍정적인 영향을 줄 수 있습니다. 그러나 정확한 최초합격 가능성을 판단하기 위해서는:
+1. 해당 단과대학의 전체 지원자들의 수능 4개 영역 등급 분포를 확인해야 합니다.
+2. 모집 인원과 지원 인원, 경쟁률 등을 고려해야 합니다.
+따라서, 수능 4개 영역 등급이 5.3인 경우 최초 합격 가능성은 높아질 것으로 예상되지만, 확실한 판단을 위해서는 더 많은 데이터를 분석해야 합니다. 자세한 정보는 동의대학교 입학처 웹사이트나 전형 안내서를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비 38번의 합격 가능성에 대한 불확실성을 언급하고 있으며, 여러 요인(수능 최저 기준, 학생부 교과성적, 면접 결과 등)을 고려해야 한다고 설명하고 있습니다. 그러나 원본 텍스트에서 명시된 "예비 38번이라면 예비 합격할 가능성이 낮습니다"라는 구체적인 사실을 명확히 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있지만, 예비 38번의 합격 가능성이 낮다는 점과는 일치하지 않습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비 합격과 관련된 다양한 요소를 다루고 있어 관련성이 높지만, 원본 텍스트의 핵심 메시지인 예비 38번의 합격 가능성에 대한 직접적인 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트의 핵심 메시지와의 연결이 약해 보입니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요인을 고려해야 한다고 언급하지만, 원본 텍스트의 구체적인 사실(예비 38번의 합격 가능성이 낮다는 점)을 정확히 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 적절한 정보를 제공하지만, 원본 텍스트의 핵심 사실을 충분히 반영하지 못해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 원본 텍스트의 특정 사실과는 다소 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트의 핵심 메시지와의 연결이 부족하여 다소 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>0.61152286528072</v>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>38번 이정도의 성적과 전형요소만으로는 정확히 예비합격이 가능한지 판단하기 어렵습니다. 합격 여부는 수능 최저 기준, 학생부 교과성적, 면접 결과 등 다양한 요인에 따라 결정됩니다.
+특히 e비즈니스학전공은 실기/실적 위주 전형도 있고, 학생부교과 위주의 전형도 있으므로, 다음과 같은 점들을 고려해야 합니다:
+1. **수능 최저 기준**: 수능 최저 기준이 없으므로 이 부분에 대한 우려는 없습니다.
+2. **학생부 교과성적**: e비즈니스학전공은 학생부교과 위주로 평가하는 전형도 있으므로, 학생부 교과성적이 높아야 합니다.
+3. **면접 성적**: 면접에서도 좋은 점수를 받는 것이 중요합니다.
+만약에 e비즈니스학전공을 지원하고자 한다면, 다음과 같은 조치들을 취해보시기 바랍니다:
+1. **학생부 교과성적 향상**: 학생부 교과성적이 높은 수준으로 유지되도록 노력하세요.
+2. **면접 준비**: 면접에서 좋은 성적을 받을 수 있도록 충분히 준비해보세요.
+더 자세한 정보를 얻기 위해서는 해당 대학의 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 를 참고하여 더 많은 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 수능 최저 기준이 없다고 주장하지만, 원문에서는 정시 성적이 3.44일 경우 합격하기 어려울 수 있다고 명시하고 있습니다. 따라서, 사실관계에서 일부 불일치가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, 간호학과의 평균 등급보다 높은 성적을 요구하는 원문의 내용을 충분히 반영하지 못하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제기된 질문에 대해 직접적으로 관련된 정보를 제공하고 있으며, 간호학과의 합격 가능성에 대한 논의를 잘 이어가고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 원문과의 연결이 약간 부족하여 완전한 일관성을 보이지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제시된 수치와 사실을 일부 반영하고 있지만, 수능 최저 기준에 대한 정보가 잘못된 것으로 보입니다. 이로 인해 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으나, 사실성과 일관성에서 약간의 문제가 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 의미와 맥락을 잘 전달하고 있으며, 주제에 적합한 내용을 포함하고 있습니다. 다만, 일부 정보가 부정확하여 완전한 적합성은 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다. 
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>0.6954394230044971</v>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 수능 최저 기준이 없습니다. 따라서, 정시 성적이 3.44인 경우에도 합격 가능성이 있습니다.
+하지만, 간호학과는 주로 수능 위주의 전형으로 모집을 진행합니다. 따라서, 정시 성적만으로 합격하기 위해서는 해당 과목의 점수가 상대적으로 높아야 합니다. 간호학과에서는 국어, 수학, 영어 등이 중요하게 평가되므로, 이들 과목에서 좋은 성적이 나와야 할 것입니다.
+또한, 간호학과는 경쟁률이 높은 학과 중 하나입니다. 따라서, 정시 성적 3.44로 합격하기 위해서는 다른 지원자들과의 경쟁에서 우위를 점해야 합니다. 이에 따라, 수능 성적이 높거나, 학생부 교과성적이 좋다면 더 높은 확률로 합격할 수 있습니다.
+결론적으로, 정시 성적 3.44로 간호학과에 지원하는 것은 가능하지만, 경쟁률이 높아서 합격 확률을 높이기 위해서는 다른 요소들도 고려해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 간호학과의 평균 영어 등급을 4.60으로 제시하고 있지만, 원본 텍스트에서는 평균 영어 등급이 2.34라고 명시되어 있습니다. 이는 명백한 사실 오류입니다. 또한, 경쟁률과 충원 합격 인원에 대한 정보는 원본 텍스트에 포함되어 있지 않으며, 이러한 정보는 원본의 맥락과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 상충하는 내용을 포함하고 있습니다. 예를 들어, 지원자의 정시 등급이 2.52라고 하였으나, 생성된 응답에서는 이를 영어 등급으로 해석하고 평균 영어 등급이 낮다고 주장합니다. 이는 원본 텍스트의 주장을 일관되게 반영하지 못하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가된 정보가 원본의 핵심 질문에 대한 직접적인 답변이 아닙니다. 원본 텍스트는 합격 가능성에 대한 질문에 대한 답변을 제공하고 있지만, 생성된 응답은 다른 요소들을 추가하여 혼란을 초래합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 이해하기 어려울 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 정보 간의 연결이 명확하지 않아 일관된 흐름이 부족합니다. 특히, 평균 영어 등급과 경쟁률에 대한 정보가 원본 텍스트의 주제와 잘 연결되지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 특히, 평균 영어 등급과 관련된 정보는 원본의 사실과 상충하며, 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 큰 오류가 있으며, 이는 전체적인 품질을 저하시킵니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 일부 일치하지만, 잘못된 정보로 인해 전체적인 의미 전달이 왜곡되었습니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있지만, 정보의 복잡성과 일관성 부족으로 인해 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>0.7145695202603632</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>2.52라는 점수는 영어 등급으로 보이는데, 동의대학교 인문사회과학대학 간호학과의 경우 평균 영어 등급이 4.60입니다 (표준 편차가 0.80). 이는 지원자의 영어 등급이 간호학과의 평균보다 낮다는 것을 의미합니다.
+간호학과의 경쟁률은 3.17이며, 충원 합격 인원은 6명입니다. 이는 간호학과가 상대적으로 높은 경쟁률을 보이는 모집단위임을 나타냅니다.
+따라서, 지원자의 영어 등급이 평균보다 낮기 때문에 최종 합격 가능성은 매우 낮다고 볼 수 있습니다. 그러나 정확한 합격 여부는 지원자의 총 점수와 경쟁률, 모집 인원 등을 고려하여 결정됩니다.
+추가적으로, 간호학과의 경우 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균이 314.83이고, 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균이 431.17입니다.
+따라서, 지원자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합과 수능 4개 영역 (가산점 포함) 표준 변환 점수 합이 이 평균보다 높아야 최종 합격 가능성은 더 높아질 것입니다.
+결론적으로, 지원자의 현재의 성적만으로는 간호학과에 최종 합격하기 어렵다고 판단됩니다. 다른 모집단위나 전형을 고려해보시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 정시 성적 3.7이 간호학과의 평균 등급보다 낮다고 언급하고 있지만, 실제로는 평균 등급이 3.37이므로 3.7은 평균보다 높은 성적입니다. 따라서 이 부분에서 사실과 다릅니다. 또한, 학생부 교과성적과 면접 성적의 중요성을 언급했지만, 원문에서 제공된 정보와는 다소 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 합격 가능성에 대한 불확실성을 언급하고 있으며, 이는 원문과 일치하는 부분이지만, 정시 성적에 대한 해석에서 일관성이 부족합니다. 원문에서는 3.7이 평균보다 낮다고 했으나, 생성된 응답에서는 이를 반영하지 않고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과에 지원할 때 고려해야 할 요소들에 대해 설명하고 있으며, 이는 원문과 관련이 있습니다. 그러나 원문에서 제공된 구체적인 데이터에 대한 언급이 부족하여 점수가 다소 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 정시 성적에 대한 해석에서의 불일치로 인해 완벽한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 정시 성적에 대한 정보가 부정확하여 정확성 점수가 낮습니다. 3.7이 평균보다 낮다고 잘못 언급하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서의 품질이 다소 부족합니다. 사실성과 정확성에서의 문제로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 간호학과에 대한 정보와 조언을 제공합니다. 그러나 원문과의 일치성에서 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>0.61495078121477</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>3.7의 정시 성적을 가지고 간호학과에 합격할 수 있는지 확정적으로 말씀드리기는 어렵습니다. 하지만 간호학과는 일반적으로 중등 교육 기간 동안의 학업 성적이 중요한 요소로 작용합니다.
+2024년도 전형요소 반영비율을 보면, 대부분의 전형에서는 학생부교과성적이나 서류가 큰 비중을 차지하고 있습니다. 예를 들어, "학생부종합(조기취업형계약학과전형)"은 서류 60%와 면접 40%로 구성되어 있으며, 이는 학생의 학업 성적을 고려하는 것을 보여줍니다.
+따라서, 정시 성적이 3.7이라면, 간호학과에 지원할 때는 다음과 같은 점들을 주의해야 합니다:
+1. **학생부 교과성적**: 이 부분이 큰 비중을 차지하므로, 학생부 교과성적을 잘 준비하고 보완하는 것이 중요합니다.
+2. **면접 성적**: 면접에서도 자신의 열정과 간호에 대한 이해를 잘 전달해야 합니다.
+또한, 정시 성적이 3.7이라면, 일부 학교에서는 이 성적도 충분히 고려할 수 있으므로, 해당 학교의 최저 기준을 확인하고 지원하는 것이 좋습니다.
+만약 자세한 정보가 필요하다면, "https://ipsi. deu. ac. kr/main. do"를 참조하시거나, 대학 입학처에 직접 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 관련된 정보를 제공하지만, 정시 성적 2.58이 평균보다 높은 성적이라는 원본 텍스트의 주장을 반박하는 내용이 포함되어 있습니다. 이는 사실과 일치하지 않으며, 잘못된 해석을 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 정보를 제공합니다. 원본 텍스트는 2.58이 평균보다 높은 성적이라고 언급하지만, 생성된 응답은 2.58이 낮은 수치라고 주장합니다. 이로 인해 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 간호학과의 정시 모집에 대한 정보를 제공하며, 관련된 내용을 다루고 있습니다. 그러나 원본 텍스트의 핵심 질문에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족합니다. 특히, 정시 성적에 대한 해석이 원본 텍스트와 상충하여 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상반되는 정보를 포함하고 있습니다. 정시 성적 2.58이 평균보다 높은 성적이라는 주장을 잘못 해석하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과 다르게 해석된 부분이 있어 완전한 적절성을 보이지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 내용이 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>0.7083098207339744</v>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 정시 모집에 대한 정보를 보면, 해당 학과는 "수능 위주"로 모집을 진행합니다. 즉, 주요 평가 요인은 수능 점수가 될 것입니다.
+제공된 데이터에서 간호학과의 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 448.29이고, 표준 편차는 4.06입니다. 이 정보를 바탕으로, 정시 성적이 2.58인 경우 간호학과에 합격하기 위해서는 매우 높은 수능 점수를 얻어야 합니다.
+정시 성적 2.58을 표준 변환 점수로 환산하면, 평균 323.00이고 표준 편차 9.87을 기준으로 보면, 정시 성적이 2.58은 매우 낮은 수치입니다.
+따라서, 정시 성적 2.58인 경우 동의대학교 간호학과에 정시 전형으로 합격하기는 어려울 것으로 예상됩니다. 더 높은 수능 점수를 얻어야 할 것입니다.
+만약에 정확한 표준 변환 점수를 알고 싶다면, 해당 성적을 기반으로 평균과 표준 편차를 이용해 계산해야 합니다. 또는 동의대학교 입학처 웹사이트 (https://ipsi. deu.ac.kr/main.do)에서 더 자세한 정보를 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 예비 7번의 합격 가능성에 대한 정보가 잘못되었습니다. 원본 텍스트에서는 예비 7번의 경우 합격 가능성이 낮다고 명시하고 있지만, 생성된 응답에서는 지원 가능성이 있다고 언급하고 있습니다. 이는 사실과 상충하는 정보입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본에서는 예비 7번의 합격 가능성이 낮다고 명시했으나, 생성된 응답에서는 가능성이 있다고 하여 서로 모순되는 내용을 포함하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하고 있지만, 예비 7번의 합격 가능성에 대한 명확한 답변이 부족하여 다소 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 연결되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 보이지는 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있습니다. 예비 7번의 합격 가능성에 대한 잘못된 해석이 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 품질을 보이지만, 사실성과 일관성에서 큰 문제를 안고 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과 일치하지 않는 부분이 있어 의미 전달이 완벽하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 내용으로 구성되어 있으나, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>0.650365079102349</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>7번 학생님이 게임공학과에 지원하셨군요. 현재 모집 인원은 40명이며, 정원 내 모집 인원이 남아 있는 상태입니다. 따라서 지원 가능성이 있습니다만, 최종 결정은 입학사정관의 서류 평가와 면접 결과에 따라 결정됩니다.
+현재까지의 정보로는 붙을 수 있다는 기대치는 있을 수 있지만, 정확한 확률을 말씀드리기는 어렵습니다. 서류 평가에서 좋은 점수를 받고 면접에서도 좋은 인상을 줄 수 있도록 준비해보시기 바랍니다.
+추가적으로 지원에 도움이 될 수 있는 정보로, 게임공학과는 다음과 같은 특징이 있습니다:
+1. **정원 내 모집 인원**: 40명
+2. **지원 자격**: 학생부교과 전형을 통해 지원 가능합니다.
+3. **서류 평가 기준**:
+   - 공동체역량: 협업능력, 행동특성 및 종합의견 등
+   - 학업역량: 수업시간 적극적 참여, 학업에 대한 성취정도 등
+   - 전공적합성: 지원전공 관련 활동과 경험
+이러한 기준을 참고하여 서류를 준비하시고, 면접에서도 자신감 있게 자신의 경험과 열정을 표현해보시기 바랍니다. 더 궁금하신 사항이 있으시면 https://ipsi. deu. ac. kr/main. do 를 참조하거나 문의해주세요.</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 성적 4.16에 대한 합격 가능성을 낮게 평가하고 있지만, 원본 텍스트에서는 4.16이 평균 등급보다 높은 성적이라고 언급하고 있어 사실과 상충합니다. 또한, 모집 인원에 대한 정보가 원본 텍스트에 없으므로 이 부분도 부정확합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관되지 않습니다. 원본 텍스트는 4.16의 성적이 합격 가능성이 높다고 명시하고 있지만, 생성된 응답은 반대로 낮은 가능성을 언급하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 원본의 핵심 내용을 왜곡하여 설명하고 있습니다. 나군 학생부종합전형에 대한 언급은 관련성이 있지만, 주제에서 벗어난 부분도 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 일관성이 떨어집니다. 전반적으로는 이해할 수 있지만, 원본과의 연결이 약합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 여러 면에서 다릅니다. 특히 합격 가능성에 대한 평가가 원본과 상반되며, 모집 인원에 대한 정보도 부정확합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 불일치가 많아 전반적인 품질이 낮습니다. 사실성, 일관성, 정확성에서 모두 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 일부 일치하지만, 전반적으로는 원본의 맥락을 왜곡하고 있습니다. 나군 학생부종합전형에 대한 언급은 적절하지만, 주제와의 관련성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 원본과의 불일치로 인해 혼란스러울 수 있는 부분이 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>0.6725245694179964</v>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격이 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>4.16이라는 수능 성적을 가지고 동의대학교 게임공학과에 지원하려는 경우, 정시 전형에서 합격 가능성은 낮을 것으로 예상됩니다. 게임공학과의 모집인원은 최대선발 가능 인원이 3 이내로 제한되어 있으며, 경쟁률이 높아서 수능 성적이 4.16이라면 충분히 합격할 확률이 낮습니다.
+하지만, 나군 학생부종합전형을 통해 지원하면 추가 합격 가능성은 있습니다. 나군 학생부종합전형에서는 학생부교과성적, 서류평가, 면접 등 다양한 요소를 종합적으로 평가하기 때문에 수능 성적이 4.16이라도 학생부 교과성적이 높거나, 지원자의 특별한 경험이나 활동이 있다면 추가 합격 가능성은 있습니다.
+따라서, 정시 전형으로만 지원하는 것보다는 나군 학생부종합전형을 통해 지원하는 것이 더 유리할 수 있습니다. 또한, 동의대학교 게임공학과에 대한 자세한 정보와 지원 요건 등을 확인하시고, 필요하다면 입학사정관과 상담을 받아보시는 것을 추천드립니다.
+더 궁금하신 점이 있으시다면 https://ipsi. deu. ac. kr/main. do 를 참고해주세요.</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 성적 기준에 대한 명확한 정보를 제공하지 않으며, 일반적인 전형 방식에 대한 언급이 있지만, 원본 텍스트의 구체적인 수치(영어 등급 평균 2.88, 수능 4개 영역 등급 평균 3.88)를 포함하지 않아 사실성이 떨어진다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 성적 기준에 대한 불확실성을 강조하면서도 원본의 구체적인 수치를 무시하고 있다. 따라서 일관성이 부족하다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 정시 모집과 관련된 정보를 제공하고 있으나, 원본 텍스트의 구체적인 성적 기준에 대한 언급이 부족하여 약간의 관련성이 떨어진다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽다. 그러나 원본 텍스트와의 연결이 약간 부족하다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 성적 기준에 대한 정확한 정보를 제공하지 않으며, 원본 텍스트의 구체적인 수치를 반영하지 않아 정확성이 떨어진다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 정확성에서 부족함이 있어 전반적인 품질이 낮다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 원본 텍스트의 구체적인 내용과는 다소 차이가 있다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 복잡하게 느껴질 수 있어 완전한 명확성은 부족하다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>0.6868365930008931</v>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>2024학년도에 경영정보학과의 정시 모집에서 성적 기준은 명확히 제공되지 않았습니다. 하지만 일반적으로 경영정보학과의 경우 학생부 교과성적을 반영하는 전형이 주를 이룹니다.
+현재 정보로는 2024학년도에 경영정보학과의 정시 모집에서 성적 기준을 충족했으니, 최초등록자로 가능할 것으로 보입니다. 하지만 최종 확정은 해당 대학의 공식 입학규정이나 모집요강을 확인해야 합니다.
+만약 자세한 정보를 원하시면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 최신 입학규정과 모집요강을 확인해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 경영정보학과의 정시 합격 가능성에 대한 판단을 어렵다고 언급하고 있지만, 원본 텍스트에서 제공된 평균 등급과 비교하여 합격 가능성이 낮다는 명확한 정보를 무시하고 있습니다. 또한, 국어국문학과와 중어중국학과의 평균과 표준 편차를 언급하는 것은 경영정보학과와 관련이 없으므로 사실적 정확성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 경영정보학과의 합격 가능성에 대한 명확한 결론을 제시하지 않고 있습니다. 원본 텍스트는 합격 가능성이 낮다고 명시하고 있지만, 생성된 응답은 이를 부정하는 내용으로 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 합격 가능성에 대한 질문에 대한 답변을 시도하고 있지만, 국어국문학과와 중어중국학과의 정보는 주제와 관련이 없습니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 부족하여 일관된 주제를 유지하지 못하고 있습니다. 경영정보학과에 대한 정보가 부족하고 다른 학과의 정보가 포함되어 있어 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 사실을 무시하고 있으며, 경영정보학과의 합격 가능성에 대한 명확한 정보를 제공하지 않습니다. 또한, 다른 학과의 평균 성적을 언급하는 것은 정확성과 관련성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 낮은 점수를 받았습니다. 전반적으로 원본 텍스트와의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 경영정보학과와 관련 없는 정보를 포함하고 있어 의미 전달이 명확하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있지만, 주제가 명확하지 않아 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>0.7136446254174874</v>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 경영정보학과의 정시 합격 가능성 판단이 어렵습니다. 경영정보학과의 정시 합격을 위해서는 해당 과목들의 등급 평균, 국어, 수학, 영어 등의 성적 평균이 모집단위별로 설정된 기준을 충족해야 합니다.
+현재 제공된 정보는 다음과 같습니다:
+- 국어국문학과의 경우 평균 4.65, 표준 편차 0.21입니다.
+- 중어중국학과의 경우 평균 5.21, 표준 편차 0.33입니다.
+이 정보만으로는 경영정보학과의 정시 합격 기준을 충족하는지 판단하기 어렵습니다. 따라서, 경영정보학과의 정시 합격 기준을 확인하시거나, 해당 대학의 입학처 웹사이트를 참조하여 자세한 정보를 얻는 것이 좋겠습니다.
+더 궁금하신 점이 있으시면 https://ipsi. deu. ac. kr/main. do 를 참고해주세요.</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 수능 위주 전형에 대한 정보를 제공하고 있지만, 원본 텍스트에서 언급된 평균 등급과 비교하여 합격 가능성에 대한 명확한 결론을 제시하지 않고 있습니다. 원본 텍스트는 5.33이 평균보다 낮다고 명시하고 있어, 이 점에서 사실성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 수능 점수와 관련된 정보를 제공하지만, 원본 텍스트의 결론과는 일치하지 않습니다. 원본 텍스트는 합격 가능성이 낮다고 명시했으나, 생성된 응답은 합격 가능성이 있다고 언급하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 전형 요소와 관련된 정보를 제공하고 있으며, 질문의 맥락에 적절하게 대응하고 있습니다. 그러나 원본 텍스트의 핵심 내용인 합격 가능성에 대한 명확한 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트의 결론과 상충하는 부분이 있어 완전한 일관성을 보이지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 수능 점수와 관련된 정보를 제공하지만, 원본 텍스트의 사실과는 다소 다르게 해석되고 있습니다. 5.33이 평균보다 낮다는 원본의 주장을 반영하지 않고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 의미를 전달하고 있으며, 관련된 정보를 제공합니다. 그러나 원본 텍스트의 핵심 메시지와는 다소 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 일부 문장이 복잡하여 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>0.6868763519792813</v>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경영정보학과의 경우, 전형요소 반영비율이 수능 위주로 되어 있습니다. 따라서 주요 평가 요인은 수능 점수가 될 것입니다.
+성적 산출 예시에서 제공된 정보를 바탕으로, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균을 확인해보겠습니다. 
+인문사회과학대학 경영정보학과의 경우, "국어  + 수학  + 탐구(2개)  (가산점 포함) 표준 변환 점수 합"의 평균은 303.44입니다.
+당신이 제공한 성적인 5.33은 영어 등급을 나타내는 것으로 보입니다. 영어 등급에 따른 점수 변환이라면, "영어 등급 {평균 / 표준 편차}"에서 평균이 3.88이고 표준편차가 0.31이라는 것을 확인할 수 있습니다.
+따라서, 5.33은 영어 등급으로 해석될 경우, 실제 점수 변환을 통해 평균보다 높은 점수가 될 것입니다 (평균 3.88 보다 높음).
+이를 종합하면, 정시 성적이 5.33인 경우, 경영정보학과의 수능 위주의 전형에서 합격 가능성은 있습니다. 그러나 확실한 합격 여부는 해당 모집단위의 최저 점수 기준 등 다양한 요인에 따라 결정될 것입니다.
+따라서, 정확한 합격 가능성을 확인하려면 동의대학교 경영정보학과 2024학년도 수능 위주의 전형의 최저점수 기준을 확인하시거나, 해당 대학의 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 바이오응용공학부의 전형과 관련된 정보를 제공하고 있으며, 성적 3.33에 대한 평가도 포함되어 있습니다. 그러나 최초등록자에 대한 언급이 부족하여 일부 정보가 누락된 것으로 보입니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 최초등록자에 대한 조건을 명확히 언급하지 않아 일관성이 떨어지는 부분이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 바이오응용공학부에 지원하는 방법에 대한 구체적인 내용을 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 문장이 잘 연결되어 있습니다. 그러나 최초등록자에 대한 언급이 부족하여 완전한 일관성을 제공하지는 못합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 제공된 정보에 대한 정확한 해석을 보여주지만, 최초등록자에 대한 조건이 명확히 언급되지 않아 일부 정확성이 떨어질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 유용한 정보를 제공합니다. 그러나 일부 정보의 누락으로 인해 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 최초등록자에 대한 언급이 부족하여 의미 전달이 완전하지 않을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>0.7184831867474548</v>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 바이오응용공학부에 지원하려면, 학생부 교과성적을 반영하는 전형이 주요합니다. 현재 제공된 정보를 바탕으로, 바이오응용공학부는 "학생부종합(조기취업형계약학과전형)"이라는 전형이 있습니다.
+"학생부종합(조기취업형계약학과전형)"의 경우, 2024년도에는 학생부 교과성적과 면접 성적이 반영됩니다. 구체적으로는 서류(학생부)가 60%와 면접이 40%를 차지합니다.
+현재의 성적인 3.33은 학생부 교과성적에서 좋은 점수로 평가될 수 있습니다. 그러나 바이오응용공학부는 "최초등록자"라는 조건을 제시하지 않았습니다. 따라서, 성적이 3.33 정도라면, 합격 가능성은 있으나 확실한 것은 아닙니다.
+결론적으로, 성적 3.33 정도로 바이오응용공학부에 지원하는 것은 가능합니다만, 최종 합격 여부는 전형 요소 반영 비율과 면접 성적 등 다양한 요인에 따라 결정됩니다. 따라서, 정확한 정보를 얻기 위해서는 동의대학교 입시 홈페이지(https://ipsi. deu.ac.kr/main.do)를 참조하거나 입학처와 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 평균 등급과 관련된 정보를 포함하고 있지만, 제시된 성적이 실제로 방사선학과에 지원하기에 적합한지에 대한 명확한 근거가 부족합니다. 또한, 과탐 성적에 대한 구체적인 수치가 제시되지 않아 다소 모호합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과의 평균 등급과 관련된 정보와 일관성을 유지하고 있습니다. 그러나, 방사선학과의 평균 등급보다 낮은 성적을 가지고 있다는 점에서 다소 모순된 부분이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 방사선학과에 지원하는 것과 관련된 정보와 조언을 제공하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나, 일부 부분에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 평균 등급에 대한 정보를 포함하고 있지만, 제시된 성적이 방사선학과에 지원하기에 적합한지에 대한 정확한 판단이 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 품질을 보여주지만, 사실성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과에 대한 정보와 조언을 적절하게 전달하고 있으며, 의미적으로 적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 정보를 제공합니다. 다만, 일부 부분에서 더 명확한 설명이 필요할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>0.6839270734527044</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>4등급의 성적을 가지고 방사선학과에 지원하는 것은 가능하지만 경쟁률이 높아서 쉽지 않을 것입니다. 방사선학과는 과학 계열로, 수능 과목 중 과학 영역(물리, 화학 등)의 성적이 중요합니다.
+현재 제시된 성적은 다음과 같습니다:
+- 국어: 104
+- 수학(미적분): 108
+- 영어: 4등급 (대략 115점)
+- 과탐(물리Ⅰ, 화학Ⅰ 등): 47, 59
+이 중에서 국어와 수학은 괜찮지만, 과탐의 성적이 떨어져 있습니다. 방사선학과는 물리와 화학을 중요하게 평가하므로 과탐 영역의 성적을 향상시키는 것이 필요합니다.
+추천 드리는 방법은 다음과 같습니다:
+1. 과탐 영역에서 더 많은 시간을 할애하여 공부를 하세요.
+2. 방사선학과에 대한 입시 정보와 전형 요건을 자세히 확인하세요.
+3. 학교생활기록부와 자기소개서 등을 잘 준비하여 학업역량과 전공적합성을 강조하세요.
+결론적으로, 현재의 성적만으로는 방사선학과에 지원하기 어렵습니다. 과탐 영역을 향상시키고, 다른 요건들을 충족시킬 수 있도록 노력하는 것이 중요합니다. 더 자세한 정보를 얻기 위해서는 "https://ipsi.deu.ac.kr/main.do" 링크에서 공식 입시 안내를 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 방사선학과에 대한 정보를 부정확하게 전달하고 있습니다. 원본 텍스트에서는 방사선학과의 평균 등급과 합격 가능성에 대한 정보를 제공하고 있지만, 생성된 응답은 그러한 정보를 전혀 반영하지 않고 있습니다. 오히려 방사선학과에 대한 정보가 없다고 주장하고 있어 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 방사선학과의 성적과 합격 가능성에 대한 정보를 제공하는 반면, 생성된 응답은 방사선학과에 대한 정보가 없다고 주장하며 서로 모순되는 내용을 담고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과에 대한 질문에 대한 답변으로 적절하지 않습니다. 원본 텍스트의 주요 내용과 관련된 정보가 부족하며, 방사선학과에 대한 구체적인 정보가 아닌 일반적인 조언을 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부적절함으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 떨어져서 전체적인 논리적 흐름이 약간 부족합니다. 방사선학과에 대한 정보가 없다는 주장은 원본 텍스트와의 연결이 약합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 방사선학과에 대한 정보가 없다고 주장하는 것은 명백한 오류입니다. 원본 텍스트는 방사선학과에 대한 구체적인 데이터를 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트의 내용을 제대로 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않습니다. 방사선학과에 대한 정보가 없다는 주장은 원본 텍스트의 내용을 무시하는 것입니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 전체적으로 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>0.6022102926905822</v>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 데이터에는 "방사선학과"에 대한 정보가 없습니다. 다른 학과의 경쟁률이나 지원 인원, 모집 인원 등에 대한 정보만 포함되어 있습니다.
+만약 방사선학과에 대해 알고 싶다면, 해당 학과의 정시 모집 인원, 지원 인원, 경쟁률 등을 확인해 보시는 것이 좋을 것 같습니다. 
+또한, 경쟁률이 2.66이라는 것은 지원자가 모집인원보다 약간 더 많은 상태를 의미합니다. 이 경우 경쟁이 치열할 수 있으므로, 해당 학과의 입학 요건이나 전형 방식 등을 추가로 확인해 보시는 것이 좋습니다.
+더 궁금하신 점이 있다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하거나, 대학에 직접 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 3.66의 성적이 평균보다 높다는 점과 농어촌 전형에서의 서류 평가 및 면접의 중요성을 언급하고 있습니다. 그러나 원본 텍스트에서 제공된 평균 성적 4.12와의 비교가 명확하지 않아 약간의 불확실성이 존재합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 농어촌 전형에 대한 구체적인 요구 사항을 추가하여 원본 텍스트와의 일관성이 떨어질 수 있습니다. 특히, 원본 텍스트는 경쟁률에 대한 긍정적인 요소를 강조했으나, 생성된 응답에서는 이 부분이 간과되었습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문자의 성적과 관련된 정보와 조언을 제공하며, 원본 텍스트의 주요 주제와 잘 연결되어 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 완전한 일관성을 제공하지는 못합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 바탕으로 하여 정확한 내용을 전달하고 있습니다. 그러나 평균 성적과의 비교가 명확하지 않아 약간의 부정확성이 존재합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 세부 사항에서 원본 텍스트와의 차이가 있어 약간의 부적절성이 존재합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>0.6094932819895549</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>3.66의 평균 점수로 경찰행정학전공의 농어촌 전형에 지원하시려면, 서류평가와 면접 등에서 좋은 성적을 받으셔야 합니다. 특히, 농어촌 학생전형에서는 농어촌 거주 경력이나 농업 관련 활동 경험 등을 중요하게 평가합니다.
+현재 제공된 정보만으로는 정확한 예측이 어렵습니다. 하지만 다음과 같은 점들을 고려해보시면 도움이 될 것입니다:
+1. **학업역량**: 3.66의 평균 점수는 좋은 성적입니다. 이 점수를 바탕으로 학교생활기록부에서 열심히 공부하고, 교사와의 관계가 좋았다면 높은 점수를 받을 수 있습니다.
+2. **공동체역량**: 농어촌 거주 경력이나 농업 관련 활동 경험 등을 잘 기재하면 이 부분에서 좋은 평점을 받을 수 있습니다.
+3. **전공적합성**: 경찰행정학과와 관련된 활동 경험, 관심 등이 잘 나타나면 이 부분에서도 좋은 점수를 받을 수 있습니다.
+4. **면접 성적**: 면접에서는 자신의 열정과 목표를 잘 전달하고, 질문에 대한 답변이 명확하고 객관적이어야 합니다.
+따라서, 3.66의 평균 점수로는 합격 가능성이 있지만, 농어촌 거주 경력이나 관련 활동 경험 등을 잘 기재하고, 면접에서도 좋은 성적을 받으셔야 합니다. 추가적으로 지원 자격과 서류 제출 등에 대한 자세한 정보를 확인하시고, 필요하다면 전문가의 조언을 구해보시는 것이 좋습니다.
+더 궁금하신 점이 있으시다면, [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)에서 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비 합격자에 대한 경쟁이 치열하다고 언급하고 있지만, 원문에서 제공된 특정 학과에 대한 정보는 누락되어 있습니다. 또한, 수능 위주 전형에 대한 언급이 있지만, 원문에서는 합격 확률이 학과에 따라 달라질 수 있다고 명시하고 있습니다. 따라서 일부 사실은 정확하지만, 전체적으로는 원문과의 일치성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 언급된 합격 확률에 대한 정보를 다루고 있지만, 원문에서 제시된 특정 학과 목록을 언급하지 않아 일관성이 부족합니다. 또한, 수능 점수와 학생부 성적에 대한 언급이 원문과의 연결이 약해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비 합격자와 관련된 정보를 제공하고 있으며, 수능 점수와 관련된 조언을 포함하고 있습니다. 그러나 원문에서 제시된 특정 학과에 대한 정보가 부족하여 완전한 관련성을 갖추지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 원문과의 연결이 약해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 수능 위주 전형에 대한 정보를 제공하지만, 원문에서 제시된 특정 학과에 대한 정보가 누락되어 있어 정확성이 떨어집니다. 또한, 합격 확률에 대한 구체적인 언급이 부족합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 일부 정보는 유용하지만, 원문과의 일치성이 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 수능 점수와 관련된 조언이 적절합니다. 그러나 원문과의 연결이 약해 의미의 일관성이 떨어질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 조언을 제공합니다. 그러나 일부 문장이 길어질 경우 이해하기 어려울 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>0.569040090669128</v>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>25번의 예비 합격자는 경쟁이 매우 치열할 것입니다. 현재 제공된 정보만으로는 정확한 확률을 계산하기 어렵습니다. 하지만 수능 위주 전형인 경우, 수능 점수와 학생부 교과 성적 등이 중요한 평가 요소입니다.
+정시 일반학생전형의 경우, 수능 최저 기준 없음이라는 정보를 보면, 수능 점수가 매우 중요할 것입니다. 따라서 수능 점수를 높게 맞추는 것이 가장 좋은 방법일 것 같습니다.
+또한, 학생부 교과 성적이나 출결 등이 평가 요소로 포함되지 않는다는 점을 고려하면, 수능 점수가 주요 평가 기준이라는 것을 다시 한 번 확인해 보세요. 
+만약 더 자세한 정보나 조언이 필요하다면, 해당 대학의 입시 홈페이지를 참조하거나, 입시 상담 센터에 문의하시는 것이 좋습니다.
+https://ipsi.deu.ac.kr/main.do 에서 추가적인 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 법경찰행정학부의 존재를 언급하고 있으며, 이는 원본 텍스트와 상충합니다. 원본 텍스트에서는 법경찰행정학부가 존재하지 않는다고 명확히 언급하고 있습니다. 또한, 성적 기준에 대한 정보도 잘못된 내용으로 제시되고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 여러 면에서 일치하지 않으며, 특히 법경찰행정학부의 존재 여부와 성적 기준에 대한 정보가 서로 모순됩니다. 따라서 일관성이 매우 낮습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 입학 기준에 대한 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용인 경찰행정학과의 성적 기준에 대한 정보와는 관련이 적습니다. 법경찰행정학부에 대한 잘못된 언급이 포함되어 있어 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성이 떨어지기 때문에 전체적인 평가에는 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 따라서 어느 정도의 일관성은 있지만, 원본과의 관계에서 혼란을 초래합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 특히 법경찰행정학부의 존재에 대한 정보가 잘못되었습니다. 성적 기준에 대한 정보도 부정확합니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 관계에서 부정확하고 일관성이 없습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 일부 의미적으로 적절한 부분이 있지만, 법경찰행정학부의 존재와 관련된 잘못된 정보로 인해 전체적인 의미 전달이 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 읽기 쉬운 문장으로 구성되어 있지만, 내용의 부정확성으로 인해 이해하는 데 혼란을 줄 수 있습니다. 따라서 이해 가능성은 보통 수준입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>0.5761394686783718</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>东义大学法警察行政学部的录取标准会根据每年的具体情况有所不同，但可以参考过去几年的数据来大致判断。通常情况下，如果想确保被该专业录取（即进入安全线），需要达到以下水平：
+1. **国语 (Korean Language)**: A- 或以上
+2. **数学 (Mathematics)**: B+ 或以上
+3. **英语 (English)**: C+ 或以上
+这些成绩大致相当于高考总分的70%左右。具体来说，如果高考总分为500分，则需要国语140分、数学105分、英语85分左右。
+但是请注意，这只是一个大概的参考值，并且每年的具体录取分数线可能会有所不同。为了确保被录取，建议您关注东义大学官方网站上的最新招生信息和历年录取数据。
+如果您想进一步确认，请访问东义大学官网（https://ipsi. deu.ac.kr/main.do）查看最新的招生简章和录取标准。</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과가 아동학과로 분류되었다는 사실과 정시 등급이 5.33인 지원자가 경쟁력을 갖출 가능성이 높다는 점을 잘 반영하고 있습니다. 그러나 아동학과의 평균 등급에 대한 구체적인 수치가 누락되어 있어 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되며, 보육가정상담학과의 전형 요소와 수능 위주 전형에 대한 설명이 포함되어 있습니다. 다만, 원본 텍스트의 특정 수치(영어 등급 평균, 수능 4개 영역 등급 평균)가 언급되지 않아 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 보육가정상담학과에 대한 정보와 지원자의 정시 등급에 대한 분석을 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 정보의 흐름이 명확합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 정확하지만, 원본 텍스트에서 제공된 특정 수치가 누락되어 있어 완전한 정확성은 다소 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있지만, 일부 세부 사항의 누락으로 인해 완전한 점수를 받지 못했습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>0.5822065747219332</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 보육가정상담학과의 모집 정보를 확인해보겠습니다.
+보육가정상담학과는 현재 아동학과로 분류되어 있습니다. 해당 학과의 전형 요소 반영 비율을 살펴보면, 수능 위주 전형으로 진행되며, 전형요소 반영비율은 다음과 같습니다:
+- 학생부 교과: 0%
+- 출결: 0%
+- 서류: 0%
+- 면접: 0%
+- 실기: 0%
+- 수능: 100%
+수능 최저 기준이 없으므로, 지원자의 수능 등급만을 기준으로 합격 여부를 판단할 수 있습니다.
+현재 제공된 정보에 따르면, 정시 산출 등급이 5.33인 지원자는 동의대학교 보육가정상담학과(아동학과)에서 충분히 경쟁력을 갖추고 있을 것으로 보입니다. 그러나 최종 합격 여부는 해당 학과의 모집 인원, 지원 인원 등 다양한 요소에 따라 결정되므로, 정확한 결과를 확인하기 위해서는 동의대학교 입시 홈페이지나 관계 부서에서 공식 정보를 확인하는 것이 좋습니다.
+추가로, 동의대학교 상경대학의 다른 학과들에 대한 모집 정보도 제공해드릴 수 있습니다. 필요하시다면 추가 정보를 요청해주세요.</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비 12번을 받은 경우 합격 가능성이 낮다고 언급하고 있지만, 원본 텍스트에서는 예비 번호가 12번일 경우 합격 가능성이 아예 없는 것은 아니라고 명시하고 있습니다. 이로 인해 사실성 점수가 낮아졌습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 예비 12번의 합격 가능성이 낮다고 주장하지만, 원본 텍스트와는 상반된 해석을 제공합니다. 원본 텍스트는 예비 번호가 12번일 경우 합격 가능성이 전혀 없지는 않다고 하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 예비 번호와 합격 가능성에 대한 정보를 잘 다루고 있습니다. 따라서 관련성 점수는 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있어 점수를 4로 평가했습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단계가 명확하게 연결되어 있습니다. 그러나 일부 문장에서 흐름이 약간 끊기는 느낌이 있어 점수를 4로 평가했습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 예비 12번의 합격 가능성에 대한 정보가 원본 텍스트와 상충하여 정확성 점수가 낮아졌습니다. 원본 텍스트의 내용을 완전히 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으나, 사실성과 일관성에서 다소 부족함이 있어 점수를 4로 평가했습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 내용에서 원본과의 차이가 있어 점수를 4로 평가했습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 복잡하게 구성되어 있어 완전한 명확성을 제공하지는 못합니다. 따라서 점수를 4로 평가했습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>0.6562901097230348</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 보육가정상담 충원 합격 3차에서 예비 12번을 받으셨다면, 합격 가능성은 매우 낮습니다. 일반적으로 예비 순위는 최종 합격 가능성이 거의 없습니다.
+이런 상황에서는 다음과 같은 절차를 따르실 수 있습니다:
+1. **합격자 발표 확인**: 홈페이지에서 개별 조회하여 최종 합격자 명단을 확인합니다.
+2. **고지서 교부**: 홈페이지에서 출력하거나 입학관리팀에서 고지서를 받습니다.
+3. **등록장소 안내**: 등록 장소가 학교 지정은행이며, 등록금 고지서에 기재된 정보를 참고합니다.
+만약 최종 합격자가 발표되지 않았다면, 합격 가능성은 더 높아집니다. 그러나 이미 예비 12번을 받으셨다면, 합격 가능성은 매우 낮습니다. 이와 관련하여 추가적인 자세한 정보는 입학관리팀에 문의하시는 것이 좋습니다.
+입학관리팀 연락처: https://ipsi. deu.ac.kr/main.do
+이 사이트에서 더 많은 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 유아교육학과에 지원할 수 있다고 언급하지만, 원본 텍스트에서는 4.75의 성적으로는 지원하기 어려울 것이라고 명확히 설명하고 있습니다. 이로 인해 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본에서는 지원이 어렵다고 명시했으나, 생성된 응답에서는 가능하다고 주장하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 유아교육학과에 대한 정보와 지원 가능성에 대해 논의하고 있어 관련성이 높지만, 원본 텍스트의 핵심 내용을 왜곡하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적으로 연결되어 있으나, 원본 텍스트와의 불일치로 인해 일관성이 떨어집니다. 
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 상반되는 정보를 제공하고 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 낮은 점수를 기록하고 있으며, 특히 사실성과 일관성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 의미적으로는 유아교육학과에 대한 논의가 이루어지고 있으나, 원본 텍스트의 맥락과는 맞지 않는 부분이 있어 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 전반적으로 이해하기 쉬운 내용이지만, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>0.6964446751889681</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>4.75라는 표준점수를 가지고 유아교육학과에 지원하는 것은 가능하지만, 경쟁률이 높은 학과 중 하나라서 쉽지 않을 것입니다.
+유아교육학과의 경우, 2024년도 모집에서 지원 인원이 13명이고 모집 인원이 4명이라는 점을 고려하면, 충분한 성적을 가지고 있어야 합니다. 또한, 유아교육학과는 학생부 교과성적이 반영되는 전형으로, 수능 점수만 높다면 충분히 좋은 결과를 얻기 어렵습니다.
+4.75라는 표준점수는 대체로 좋은 성적을 의미하지만, 유아교육학과의 경우 학생부 교과성적이 중요한 평가 요소이므로, 수능 점수 외에도 학생부 교과성적도 높은 것이 중요합니다.
+따라서, 4.75라는 성적을 가지고 유아교육학과에 지원하는 것은 가능하지만, 충분히 좋은 학생부 교과성적이 더 필요할 것입니다.</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과의 수능 등급 평균을 4.28로 언급하고 있으며, 이는 원본 텍스트의 정보와 일치하지 않습니다. 원본 텍스트에서는 아동학과의 영어 등급 평균과 수능 4개 영역 등급 평균에 대한 정보만 제공되고 있습니다. 따라서, 일부 정보는 정확하지만, 다른 부분에서 부정확한 내용을 포함하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 수능 등급 평균에 대한 정보가 다릅니다. 또한, 경쟁률과 모집 인원에 대한 추가 정보를 제공하고 있지만, 이는 원본 텍스트에서 다루지 않은 내용입니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변을 제공하고 있으며, 보육가정상담학과의 합격 가능성에 대한 분석을 포함하고 있습니다. 그러나 원본 텍스트의 핵심 정보와는 다소 차이가 있어 완전한 관련성은 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 떨어지는 부분이 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 수능 등급 평균에 대한 정보가 원본 텍스트와 일치하지 않으며, 이로 인해 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 의미를 전달하고 있으며, 전반적으로 적절한 내용입니다. 그러나 원본 텍스트와의 차이로 인해 일부 의미가 왜곡될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 내용으로 구성되어 있으며, 명확한 설명을 제공합니다. 그러나 일부 문장이 길어 이해하기 어려운 부분이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>0.6082274840574482</v>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 인문사회과학대학 보육가정상담학과의 경우, 수능 위주 전형으로 진행되며, 지원자의 수능 등급에 따라 합격 여부가 결정됩니다. 제공된 데이터를 바탕으로 분석해보겠습니다.
+보육가정상담학과의 2024학년도 모집 정보는 다음과 같습니다:
+- 모집 인원: 36명
+- 지원 인원: 157명
+- 경쟁률: 약 4.36 (157/36)
+- 수능 등급 평균: 4.28
+제가 제공한 정보에 따르면, 보육가정상담학과의 수능 등급 평균은 4.28입니다. 현재 제 수능 환산등급이 4.16이라면, 이는 평균보다 약간 낮습니다.
+그러나 경쟁률이 높아서 단순히 수능 등급만으로 합격 여부를 판단하기는 어렵습니다. 지원자의 전체 성적과 면접 등의 결과도 고려됩니다. 또한, 각 지원자들의 학생부 교과성적, 출결, 서류 평가 등이 함께 반영되기 때문에, 수능 환산등급만으로 정확한 예측을 내리기는 어렵습니다.
+따라서, 추합까지 생각해보시는 것은 좋은 접근법일 수 있습니다. 하지만, 확실한 합격 여부를 결정하기 위해서는 실제 면접 결과와 전체 평가 점수도 고려해야 합니다. 또한, 동의대학교에서 제공하는 최저 기준을 확인하시고, 지원자의 전반적인 성적과 적합성을 종합적으로 판단해보시는 것이 좋습니다.
+더 자세한 정보나 도움이 필요하시다면, 동의대학교 입학처 웹사이트를 방문하거나 직접 문의하시는 것을 추천드립니다. (https://ipsi. deu.ac.kr/main.do)</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 "소프트웨어융합학과"가 정시로 지원할 수 없다는 사실을 무시하고, "소프트웨어공학부"에 대한 정시 모집 요건을 설명하고 있습니다. 이는 원본 텍스트와 상충하는 정보로, 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 완전히 모순됩니다. 원본 텍스트는 "소프트웨어융합학과"에 대한 정시 지원이 불가능하다고 명시하고 있지만, 생성된 응답은 정시 지원에 대한 정보를 제공하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 질문에 대한 직접적인 답변이 아니며, 관련성이 없습니다. 원본 텍스트는 정시 지원 가능성에 대한 질문인데, 생성된 응답은 다른 학과의 정시 모집 요건에 대한 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부적절함으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관계가 불명확하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 다릅니다. "소프트웨어융합학과"의 정시 지원 불가능성을 무시하고 다른 정보를 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 정보를 제공합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 전체적으로 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>0.4361775060139101</v>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 "소프트웨어공학부"의 정시 모집에 대한 자세한 요구사항을 확인하기 어렵습니다. 그러나 일반적으로 소프트웨어공학과를 정시로 지원하려면 다음과 같은 점수대가 필요할 것으로 예상됩니다:
+1. **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 이 부분의 평균 점수가 317.87입니다. 정시 모집에서는 보통 이보다 높은 점수를 요구합니다.
+2. **영어 등급**: 이 부분의 평균 점수가 3.77입니다. 영어는 많은 대학에서 필수로 요구하며, 보통 4.0 이상을 요구하는 경우가 많습니다.
+3. **수능 4개 영역 등급**: 이 부분의 평균 점수가 4.49입니다. 정시 모집에서는 보통 이보다 높은 점수를 요구합니다.
+따라서 "소프트웨어공학부"에 정시로 지원하려면 다음과 같은 점수대가 필요할 것으로 예상됩니다:
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 350 이상
+- **영어 등급**: 4.0 이상
+- **수능 4개 영역 등급**: 4.7 이상
+하지만 이는 추정치이며, 각 대학의 정시 모집요강에 따라 요구 점수가 달라질 수 있습니다. 따라서 "소프트웨어공학부"의 정시 모집요강을 확인하시기 바랍니다.
+더 자세한 정보를 얻으려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 해당 대학의 공식 웹사이트에서 정시 모집요강을 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 소프트웨어융합학과의 평가 기준에 대한 잘못된 정보를 포함하고 있습니다. 원문에서는 서류 평가와 면접 고사가 포함된다고 명시되어 있지만, 생성된 응답에서는 면접 점수가 아닌 수능 성적이 주요 평가 기준이라고 잘못 언급하고 있습니다. 이는 원문과 상충하는 내용입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 부족합니다. 원문에서는 서류 평가와 면접 고사가 모두 포함된다고 명시되어 있으나, 생성된 응답에서는 면접 점수가 필요 없다고 주장하고 있습니다. 이는 서로 모순되는 정보입니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 언급된 주제와 관련이 있지만, 잘못된 정보로 인해 일부 내용이 부적절하게 연결되어 있습니다. 그러나 전반적으로 질문에 대한 답변을 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보가 서로 연결되지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 상당히 다릅니다. 특히 평가 기준에 대한 설명이 잘못되어 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성과 일관성에서 큰 문제가 있으며, 정확성 또한 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문의 의미와 관련이 있지만, 잘못된 정보로 인해 의미 전달이 부적절하게 이루어졌습니다. 원문의 맥락을 제대로 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>0.5898757624280687</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>ict융합공과대학 소프트웨어 융합과는 일반학생전형으로 모집되며, 이 경우 면접 점수가 아닌 수능 성적이 주요 평가 기준입니다. 따라서 세특 내용이나 서류 준비는 필요하지 않습니다.
+만약 조기취업형 계약학과 전형인 나군의 경우라면, 면접 점수와 세특 내용을 모두 고려할 수 있습니다. 이때 세특 내용은 지원 동기에 대한 설명, 학교생활 기록부에서의 활동 내용 등을 포함하여 준비하는 것이 좋습니다.
+면접 시 서류 진위 여부를 검증하기 위해 면접질문지를 활용하므로, 제출서류와 실제 경험을 일치시키는 것이 중요합니다. 또한 면접에서는 지원 동기와 학업 계획, 전공적합성 등을 설명하는 것이 필요합니다.
+따라서, ict융합공과대학 소프트웨어 융합과의 경우 일반학생전형으로 모집되므로 세특 내용이나 서류 준비는 필요하지 않습니다. 만약 나군 조기취업형 계약학과 전형을 고려하고 있다면, 면접 준비와 세특 내용을 함께 체계적으로 준비하는 것이 좋습니다.
+더 궁금한 사항이 있으시다면 https://ipsi.deu.ac.kr/main.do를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 최초합격자 평균 성적에 대한 정보를 포함하고 있지만, 원본 텍스트에서 제공된 4.12와 4.08의 비교에 대한 명확한 언급이 부족합니다. 또한, 지원 인원과 경쟁률에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로, 일부 사실이 추가되었지만 원본의 핵심 정보를 완전히 반영하지는 못했습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 추가된 정보(지원 인원, 경쟁률 등)가 원본의 맥락과 일치하지 않거나 혼란을 줄 수 있습니다. 특히, 4.08 성적이 최초합격자 평균 점수에 미치지 못한다고 언급한 부분은 원본의 내용과 상충합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 최초합격자에 대한 정보를 제공하며, 질문자의 성적에 대한 평가를 포함하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 정보에 대한 직접적인 언급이 부족하여 완전한 관련성을 보장하지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 완전한 일관성을 보장하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 핵심 사실을 왜곡하거나 잘못 해석한 부분이 있습니다. 특히, 성적 비교에 대한 해석이 원본과 다릅니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 대체로 잘 전달하고 있으나, 일부 추가 정보가 원본의 의미를 왜곡할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 언어로 작성되어 있습니다. 그러나 일부 정보가 혼란을 줄 수 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>0.8118435671992572</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프트웨어공학부의 최초합격자를 보면, 지원 인원이 56명이고 경쟁률은 약 1.87입니다. 또한, 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 390.45이며, 영어 등급의 평균은 4.60입니다.
+당신이 정시 성적이 4.08이라면, 이는 동의대학교 소프트웨어공학부의 최초합격자 평균 점수(390.45)에 미치지 못합니다. 또한, 영어 등급 평균은 4.60이므로, 당신의 영어 등급도 조금 부족할 수 있습니다.
+따라서, 정시 성적이 4.08이라면 동의대학교 소프트웨어공학부 최초합격자로는 어려울 것으로 보입니다. 그러나, 경쟁률이 낮은 모집단위나 학생부종합전형 등을 통해 지원하면 가능성이 있을 수 있습니다.
+더 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트(https://ipsi. deu.ac.kr/main.do)를 참조하시거나, 직접 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보를 제공하지 않으며, 잘못된 정보(소프트웨어공학부의 정시 모집군 가의 평균 5등급 등)를 포함하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 포함하고 있으며, 특히 모집군에 대한 잘못된 정보가 포함되어 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 관련된 주제를 다루고 있지만, 잘못된 정보로 인해 관련성이 떨어집니다. 원본 텍스트의 핵심 내용과는 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 문법적으로는 비교적 잘 작성되었으나, 내용의 정확성 문제로 인해 전체적인 흐름이 방해받습니다. 그러나 문장 구조는 매끄럽습니다.
+5. Coherence Score (1-5): 3
+   - 응답의 구조는 비교적 일관되지만, 잘못된 정보로 인해 전체적인 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 사실과 일치하지 않는 정보가 포함되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 여러 차원에서 모두 낮은 점수를 기록하고 있으며, 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 의미적으로는 일부 적절한 부분이 있지만, 잘못된 정보로 인해 전체적인 맥락에서 부적절한 부분이 많습니다.
+9. Understandability Score (1-5): 3
+   - 문장은 이해하기 쉬운 편이지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>0.6681582403397166</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>2024학년도에 ICT융합공과대학의 소프트웨어공학부는 정시모집군 가에 속해 있습니다. 해당 학과의 정시 모집군 가의 평균 5등급을 기준으로 지원 가능성을 판단할 수 있습니다.
+소프트웨어공학부의 정시 모집군 가의 평균 5등급은 다음과 같습니다:
+- 영어 등급: 평균 3.77, 표준 편차 0.67
+- 수능 4개 영역 등급: 평균 4.49, 표준 편차 0.30
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 434.70, 표준 편차 8.01
+평균 5등급으로 지원한다면, 영어 등급이 약간 낮을 수 있지만, 수능 점수가 상대적으로 높기 때문에 충분히 경쟁력을 갖추고 있을 것입니다.
+하지만 최종 결정은 입학사정관이 평가하는 모든 요소를 고려하여 내릴 것이므로, 정확한 가능성을 판단하기 위해서는 입학사정관에게 문의하거나, 해당 대학의 웹사이트에서 더 자세한 정보를 확인해 보시는 것이 좋습니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조하여 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학과의 평균 성적과 경쟁률에 대한 정보를 포함하고 있지만, "4.28이라는 성적을 가지고는 합격 가능성은 낮지만"이라는 부분은 원본 텍스트의 긍정적인 판단과 상충합니다. 따라서 일부 사실이 왜곡되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 합격 가능성에 대한 결론이 원본 텍스트의 긍정적인 판단과 모순됩니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요점이 명확하게 연결되어 있습니다. 그러나 결론 부분에서 원본 텍스트와의 불일치로 인해 약간의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 합격 가능성에 대한 판단이 원본 텍스트와 다르기 때문에 정확성 점수가 낮아집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 적절한 정보를 제공하지만, 사실성과 일관성에서의 문제로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 결론 부분에서의 판단이 다소 부적절하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 복잡하게 느껴질 수 있어 완전한 명확성에는 다소 부족합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>0.5749587373142263</v>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>4.28이라는 성적을 가지고 동의대학교 신소재공학과에 합격할 수 있는지는 여러 요인들이 고려되어야 합니다.
+1. **평균 성적**: 제공된 데이터를 보면, 신소재공학과의 평균 수능 4개 영역 등급이 5.32입니다 (표준 편차는 0.51). 이는 4.28보다 높은 점수를 요구하고 있습니다.
+2. **경쟁률**: 신소재공학과의 모집인원은 56명이고 지원 인원이 81명으로, 경쟁률이 1.45입니다. 이는 합격 가능성을 높여줍니다만, 여전히 낮은 평균 성적을 가지고 있다면 불리할 수 있습니다.
+3. **개인 성적의 위치**: 제공된 데이터를 보면, 신소재공학과의 지원자들의 평균 수능 4개 영역 등급이 5.32이고 표준 편차가 0.51입니다. 이는 대부분의 지원자가 높은 점수를 받았음을 의미합니다.
+따라서, 4.28이라는 성적을 가지고 동의대학교 신소재공학과에 합격할 수 있을지는 불확실합니다. 하지만, 개인의 노력과 특성, 서류평가 등이 고려되어 합격 가능성은 열려 있습니다. 
+추천되는 조치는 다음과 같습니다:
+- **자기소개서와 서류 준비**: 강점과 경험을 잘 표현한 자기소개서를 작성하고, 필요할 경우 추가 서류를 준비합니다.
+- **면접 준비**: 면접에서도 개인의 성장과정과 학업태도 등을 잘 전달할 수 있도록 준비합니다.
+결론적으로, 4.28이라는 성적을 가지고는 합격 가능성은 낮지만, 모든 요소가 고려되어야 하므로 최선을 다해 지원하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 일반학생전형에 자기소개서가 필요 없다는 사실을 언급하고 있지만, 그 이후에 제시된 내용은 자기소개서를 준비하는 방법에 대한 정보로, 원문과 상충하는 부분이 있습니다. 원문은 자기소개서가 필요 없다고 명확히 말하고 있으므로, 이 부분에서 사실성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관되지 않습니다. 원문은 자기소개서가 필요 없다고 명시하고 있지만, 생성된 응답에서는 자기소개서를 준비할 수 있다고 언급하고 있어 서로 모순되는 정보가 포함되어 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 자기소개서가 필요 없다는 원문의 핵심 메시지를 간과하고 있습니다. 따라서 관련성은 있지만, 핵심 주제를 제대로 반영하지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 연결이 부족하여 일관된 흐름이 떨어집니다. 자기소개서에 대한 설명이 원문과의 논리적 연결이 약합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제시된 사실과 상충하는 내용을 포함하고 있습니다. 자기소개서가 필요 없다는 점을 무시하고 자기소개서 작성 방법을 제시하고 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 일관성이 부족하고, 사실성 및 정확성에서도 문제가 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문의 의미와 관련된 내용을 다루고 있지만, 자기소개서가 필요 없다는 원문의 주제를 제대로 반영하지 못하고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원문과의 관계가 명확하지 않아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>0.4967530741482006</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>一般的的，对于参加韩国大学的“一般学生”入学考试（수능 일반학생전형），通常不需要提交个人陈述书（자기소개서）。主要依据是学生成绩、科目成绩标准转换分数等。但是，为了更好地展示自己的个性和特长，可以准备一份简洁的个人介绍内容，作为参考材料。
+如果确实需要撰写个人陈述书，请确保内容真实且突出你的特点。例如：
+1. 个人基本信息（姓名、学校等）
+2. 学术成就和个人兴趣
+3. 特别经历或项目
+4. 对所申请专业的热情和期望
+不过，具体要求可能会因大学而异，建议直接访问“https://ipsi.deu.ac.kr/main.do”查看目标学校的详细入学指南。</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 수능 정시 모집에 대한 정보를 잘 반영하고 있으며, 4.5 등급의 합격 가능성에 대한 언급도 적절합니다. 그러나 성적 산출 방법에 대한 구체적인 정보는 원문에 명시되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 대체로 일관되며, 추가 모집에 대한 정보와 고려해야 할 요소들을 잘 설명하고 있습니다. 다만, 성적 산출 방법에 대한 언급이 원문에 없기 때문에 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 수능 정시 모집과 추가 모집에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 이해하기 쉬운 표현으로 잘 작성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 대체로 정확하지만, 성적 산출 방법에 대한 구체적인 설명이 원문에 없으므로 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 잘 수행되고 있으나, 일부 정보의 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>0.7029855066569641</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>동의대학교 수능 정시에서 4.5 등급을 받으셨다면, 추가 모집에 지원하여 합격할 가능성은 있습니다. 그러나 이는 여러 요인에 따라 달라질 수 있으므로, 다음과 같은 점들을 고려해보세요:
+1. **모집단위와 경쟁률**: 각 모집단위의 경쟁률과 모집 인원을 확인해야 합니다. 경쟁률이 높다면 더 어렵게 느껴질 수 있습니다.
+2. **성적 산출방법**: 동의대학교의 성적 산출 방법을 확인하세요. 예를 들어, 국어, 수학(미적분), 영어 등급, 탐구 과목 중 상위 3개 영역의 점수를 합산하는 방식일 수도 있습니다.
+3. **추가모집의 특성**: 추가 모집에서는 일반적으로 경쟁률이 높을 수 있으므로, 이에 대한 정보를 확인해보세요.
+4. **면접 및 기타 요소**: 일부 전형에서는 면접이나 서류 평가 등 다른 요소도 고려할 수 있으므로, 해당 전형의 특성을 파악하는 것이 중요합니다.
+위와 같은 정보들을 종합적으로 고려하여 결정하시길 바랍니다. 필요하다면 동의대학교의 공식 웹사이트나 입학처에 문의해보시는 것도 좋은 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학과의 평균 등급에 대한 정보를 포함하고 있으며, 신설된 학과에 대한 언급도 있습니다. 그러나 정시 모집군에 대한 구체적인 정보가 부족하여 일부 사실이 누락된 것으로 보입니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학과와 고분자나노공학과의 분리에 대한 정보를 제공하지만, 원본 텍스트의 평균 등급 정보와는 일관성이 떨어지는 부분이 있습니다. 특히, 정시 모집군에 대한 정보가 없다는 점에서 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 신소재공학과의 합격 가능성에 대한 질문에 직접적으로 관련된 정보를 제공합니다. 또한, 웹사이트 링크를 통해 추가 정보를 찾을 수 있도록 안내하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 정시 모집군에 대한 정보가 부족하여 완전한 일관성을 제공하지는 못합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학과의 평균 등급과 관련된 정보를 정확하게 반영하고 있지만, 정시 모집군에 대한 구체적인 정보가 부족하여 정확성이 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 일부 정보의 부족으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 정시 모집군에 대한 정보가 부족하여 의미 전달이 완전하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>0.5251937163779667</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>2024학년도에 동의대학교 신소재공학과(신설)가 신설되었으며, 이전에는 신소재공학부로 분류되어 있었습니다. 하지만 현재는 신소재공학과와 고분자나노공학과로 분리되었습니다.
+현재 정시 모집군에 대한 정보가 제공되지 않았습니다. 2024학년도 정시 모집군 변경사항을 확인하기 위해서는 대학 입학처 웹사이트를 참조하시거나, "https://ipsi.deu.ac.kr/main.do" 링크를 통해 최신 정보를 얻으시기 바랍니다.
+현재로서는 신소재공학과와 고분자나노공학과의 정시 모집군이 변경되었는지 확인해야 합니다. 따라서, 정확한 합격 가능 등급을 파악하기 위해서는 대학 입학처 웹사이트를 방문하여 최신 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 작년 신소재공학과의 평균 점수와 관련된 정보를 제공하지만, "447점보다 약간 높아졌을 가능성"이라는 표현은 원본 텍스트의 명확한 사실을 모호하게 만들고 있습니다. 원본 텍스트는 378.15점이라는 구체적인 수치를 제공하고 있으며, 생성된 응답은 이를 기반으로 한 명확한 결론을 제시하지 않고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, "작년 신소재공학과의 최종 평균 점수가 447점보다 약간 높았다는 정보"라는 부분은 원본 텍스트의 내용을 왜곡할 수 있는 가능성이 있습니다. 원본 텍스트는 447점이 훨씬 높은 점수라고 명시하고 있으므로, 이 부분에서 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 신소재공학과의 평균 점수와 합격 가능성에 대한 논의를 포함하고 있습니다. 그러나 일부 내용은 원본 텍스트의 핵심 질문에 대한 직접적인 답변이 아닌 추가적인 정보로 흐를 수 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 일부 문장은 원본 텍스트의 주제와 직접적으로 연결되지 않아 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 바탕으로 하고 있지만, "447점보다 약간 높아졌을 가능성"이라는 표현은 정확한 사실을 반영하지 않습니다. 원본 텍스트는 378.15점이라는 구체적인 수치를 제공하고 있으며, 이와 관련된 정확한 해석이 부족합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 품질을 보이지만, 사실성과 일관성에서 다소 부족함이 있습니다. 전반적으로 유용한 정보가 포함되어 있지만, 명확한 결론이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 일부 표현은 원본 텍스트의 명확한 사실을 흐릴 수 있는 가능성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>0.7218736513525965</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 신소재공학과의 최종 평균 점수가 작년에 비해 약간 높아졌을 가능성은 있습니다. 하지만 표준점수 환산 시점이 작년과 다르다면, 실제 비교는 복잡할 수 있습니다.
+표준점수 환산 공식은 다음과 같습니다:
+\[ \text{표준점수} = \frac{\text{원점수} - \text{평균}}{\text{표준편차}} \]
+이 공식을 사용하면, 작년과 올해의 평균 점수와 표준편차가 다르다면 동일한 원점수가 환산된 표준점수에 차이가 있을 수 있습니다.
+따라서, 작년 신소재공학과의 최종 평균 점수가 447점보다 약간 높았다는 정보만으로는 확실하게 올해도 가능하다고 말하기 어렵습니다. 실제 환산 결과를 확인하려면 동의대학교 입학처 웹사이트에서 제공하는 표준점수 환산 공식이나 예시 자료를 참고해야 합니다.
+추가적으로, 작년과 올해의 모집인원, 지원인원, 경쟁률 등의 변화도 고려해야 합니다. 이들 요소들이 변동되면 최종 평균 점수가 달라질 수 있습니다.
+따라서, 정확한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트 (https://ipsi. deu. ac. kr/main. do)에서 공식 자료를 확인하는 것이 가장 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보를 일부 반영하고 있지만, "합격 가능성이 있지만 확률은 낮을 것입니다"라는 주장은 원본 텍스트의 긍정적인 합격 가능성과 상충합니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 합격 가능성에 대한 해석이 다르기 때문에 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 일부 내용이 원본 텍스트의 핵심 포인트에서 벗어나므로 관련성 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 일부 문장이 다소 복잡하게 구성되어 있어 유창성 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제 간의 연결이 명확하므로 일관성 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 다소 상충하는 부분이 있어 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서 평가했을 때, 생성된 응답은 전반적으로 평균적인 성과를 보이며, 여러 요소에서 다소 부족함이 있어 다차원 품질 점수는 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하므로 의미 적합성 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 명확하고 이해하기 쉬우나, 일부 문장이 복잡할 수 있어 이해 가능성 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>0.6521273182923233</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.3 등급의 수능 성적이 동의대학교에서 4.1~4.2 정도로 산출된다면, 신소재공학부의 일반 학생 전형에 붙는 것은 가능성이 있지만 확률은 낮을 것입니다.
+신소재공학부의 경우, 입시 경쟁률이 높고, 수능 성적과 학교생활기록부가 중요한 평가 요인으로 작용합니다. 4.1~4.2 등급의 성적이 동의대학교에서 평균보다 낮은 점수를 받을 가능성이 있으므로, 이에 대한 우려는 있을 수 있습니다.
+다만, 학교생활기록부와 면접 등의 평가 요소가 중요하기 때문에, 다음과 같은 방법들을 시도해볼 수 있습니다:
+1. **학교생활기록부 강화**: 활동 기록과 성적을 잘 반영한 학교생활기록부를 작성합니다.
+2. **면접 준비**: 면접에서 자신의 장점과 신소재공학에 대한 열정을 잘 전달할 수 있도록 준비합니다.
+3. **추천서 활용**: 선생님이나 지도老师的，您能否用韩语回答以下问题：目前我的高考成绩大概是4.3等，如果按照东义大学的算法，大概会是4.1~4.2左右。请问新材学部的一般生源招生我能被录取吗？
+</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 인공지능학과의 수능 일반학생전형에 대한 성적 기준을 제시하고 있으나, 원본 텍스트에 명시된 구체적인 평균 점수와 표준 편차 등의 세부 사항은 포함되어 있지 않다. 따라서 일부 정보가 누락되어 있어 4점을 부여하였다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 전형 요소와 추천 성적에 대한 추가적인 정보를 제공하면서 원본 텍스트의 구체적인 성적 정보를 생략하고 있다. 이로 인해 일관성이 떨어져 3점을 부여하였다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교 인공지능학과의 수능 일반학생전형에 지원하기 위한 성적 기준에 대해 직접적으로 다루고 있어 매우 관련성이 높다. 따라서 5점을 부여하였다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 일부 문장에서 약간의 어색함이 느껴질 수 있다. 따라서 4점을 부여하였다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있어 이해하기 쉽다. 그러나 약간의 중복된 정보가 있어 4점을 부여하였다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 인공지능학과의 수능 일반학생전형에 대한 정보를 정확하게 전달하고 있으나, 원본 텍스트의 구체적인 수치 정보가 누락되어 있어 4점을 부여하였다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으나, 일부 정보의 누락과 일관성 문제로 인해 4점을 부여하였다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 세부 사항이 누락되어 있어 4점을 부여하였다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있으나, 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있어 4점을 부여하였다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>0.8151456861588138</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형에 지원하려면, 다음과 같은 성적을 갖추는 것이 중요합니다.
+1. **수능 성적**:
+   - 국어(화법과작문 or 언어와매체): 25% 반영
+   - 수학(확률과통계 or 미적분 or 기하): 25% 반영
+   - 영어: 25% 반영
+   - 탐구(사회탐구 or 과학탐구 or 직업탐구 중 영역 관계없이 2개 과목): 25% 반영
+2. **전형요소**:
+   - 수능 성적은 각 영역별로 25%씩 반영되며, 국어, 수학, 영어는 표준점수를 기반으로 평가됩니다.
+   - 탐구 과목 중 2개 과목을 선택하여 평가합니다.
+3. **추천 성적**:
+   - 국어: 90점 이상
+   - 수학: 85점 이상 (미적분 or 기하)
+   - 영어: 70점 이상
+이러한 성적을 갖추면 동의대학교 인공지능학과의 수능 일반학생전형에 지원할 수 있습니다. 하지만 최종 합격 여부는 전형요소 반영비율, 모집인원 등 다양한 요인이 결합되어 결정되므로, 정확한 합격 가능성을 확인하려면 동의대학교의 공식 홈페이지를 참조하거나 입학처에 문의하는 것이 좋습니다. 
+더 궁금하신 점이 있으시다면 https://ipsi. deu. ac. kr/main. do 에 접속하여 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 동의대학교의 전형 유형에 대한 정보를 제공하지만, 원본 텍스트에서 제시된 특정 학과와 성적 기준에 대한 구체적인 내용이 누락되어 있습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 동의대학교의 특정 학과와 성적 기준에 대한 구체적인 내용이 부족하여 일관성이 떨어집니다. 따라서 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 동의대학교의 전형 유형에 대한 정보를 제공하며, 질문에 대한 관련성을 가지고 있습니다. 그러나 원본 텍스트의 구체적인 학과 정보가 부족하여 관련성 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬운 문장으로 구성되어 있습니다. 따라서 유창성 점수는 5로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 전형 유형에 대한 설명이 명확합니다. 그러나 원본 텍스트의 구체적인 내용이 부족하여 일관성 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 동의대학교의 전형 유형에 대한 정보를 제공하지만, 원본 텍스트의 구체적인 학과와 성적 기준에 대한 정보가 누락되어 있습니다. 따라서 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 유창성과 관련성에서 높은 점수를 받지만, 사실성과 일관성에서 부족한 점이 있어 다차원 품질 점수는 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 질문의 맥락에 적절하게 의미를 전달하고 있으나, 원본 텍스트의 구체적인 내용이 부족하여 의미 적합성 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 문장으로 구성되어 있어 이해 가능성 점수는 5로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>0.701533682132082</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>5.27이라는 성적을 가지고 동의대학교(동의보건과학대학교)에서 어떤 학과에 지원할 수 있는지 확인해 보겠습니다.
+주어진 데이터를 바탕으로, 동의대학교는 주로 "수능 위주"와 "실기/실적 위주" 두 가지 전형 유형을 사용합니다. 또한, 특정 학과에서는 학생부 교과 성적이 반영되는 경우도 있습니다.
+1. **수능 위주의 전형**:
+   - 이 경우에는 수능 점수가 주요 평가 기준이므로, 5.27이라는 수능 등급으로는 대부분의 학과에서 충분히 경쟁력을 갖추실 수 있을 것입니다.
+2. **실기/실적 위주의 전형**:
+   - 이 경우에는 실기 성적이 주요 평가 기준이므로, 일반적으로 5.27이라는 수능 등급으로는 지원하기 어려울 것으로 보입니다.
+3. **학생부 교과 성적을 반영하는 전형**:
+   - 일부 학과에서는 학생부 교과 성적이 반영되므로, 이 경우에는 5.27의 수능 점수만으로는 충분하지 않을 것입니다.
+따라서, 5.27이라는 수능 등급으로 동의대학교에서 지원 가능한 학과는 주로 "수능 위주의 전형"에 해당하는 학과들일 것으로 보입니다. 
+특정 학과에 대한 자세한 정보를 얻기 위해서는 동의대학교의 공식 웹사이트나 입학처와 직접 문의하시는 것이 가장 정확할 것입니다.
+더 궁금하신 점이 있으시면 언제든지 물어보세요!</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 평균 등급과 관련된 정보를 제공하지만, 평균 등급 4.33과 표준 편차 1.05는 원본 텍스트에 명시되어 있지 않으며, 이는 사실과 다를 수 있습니다. 또한, "수능 최저 기준 없음"이라는 정보도 원본에 포함되어 있지 않아 정확성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 평균 등급과 관련된 수치가 다르며, 합격 가능성에 대한 해석이 원본과 상충할 수 있습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련이 있으며, 정시 성적에 대한 합격 가능성을 논의하고 있습니다. 그러나 일부 추가 정보가 원본 텍스트와 직접적으로 관련이 없을 수 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 몇몇 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 일부 문장이 다소 중복되거나 불필요하게 길어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트에 명시된 사실과 일치하지 않는 부분이 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 정보는 원본과 일치하지 않아 의미 전달에 약간의 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었지만, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>0.6775041063372131</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>정시 성적 4.2인데 동의대학교 소프트웨어공학부 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부는 주로 수능 위주로 모집을 진행합니다. 따라서, 정시 성적이 4.2라면 해당 학과에 지원하는 것은 가능하지만, 경쟁률이 높아서 합격하기 쉽지 않을 것입니다.
+특히, 동의대학교 소프트웨어공학부는 수능 최저 기준 없음으로 보통 높은 성적을 요구합니다. 평균 등급 4.33과 표준 편차 1.05를 보면, 정시 성적이 4.2인 경우 합격하기 어렵다고 볼 수 있습니다.
+하지만, 지원자의 개인적인 특성이나 전형 요소 반영 비율 등을 고려하면 조금 더 낮은 점수로도 합격할 가능성은 있습니다. 예를 들어, 특정 전형에서 서류 평가나 면접 등이 중요하게 반영되는 경우입니다.
+따라서, 정시 성적이 4.2인 경우에는 동의대학교 소프트웨어공학부에 지원하기 어렵다고 볼 수 있지만, 모든 가능성은 열려 있다고 할 수 있습니다. 자세한 정보는 동의대학교 입학처 웹사이트를 참조하거나 직접 문의하는 것이 좋습니다.
+https://ipsi. deu. ac. kr/main. do</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 수능 최저 기준에 대한 언급이 있지만, 원본 텍스트에서 제공된 정보와는 다소 다릅니다. 원본 텍스트는 3.92라는 점수가 화학환경공학부의 평균 등급보다 높다고 명시하고 있으며, 합격 가능성이 높다고 언급하고 있습니다. 그러나 생성된 응답은 수능 최저 기준이 없다는 가정 하에 지원 가능성을 논의하고 있어, 원본의 핵심 정보를 완전히 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 수능 최저 기준에 대한 언급이 추가되어 있어 일관성이 떨어집니다. 원본 텍스트는 3.92 점수에 대한 긍정적인 해석을 제공하는 반면, 생성된 응답은 조건부로 지원 가능성을 논의하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 화학환경공학부에 지원하는 것과 관련된 정보를 제공하고 있으며, 원본 텍스트의 주제와 관련이 있습니다. 그러나 수능 최저 기준에 대한 언급이 원본 텍스트의 핵심 내용과는 다소 거리가 있어 완전한 관련성을 보이지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 수능 최저 기준에 대한 언급이 추가되면서 원본 텍스트의 흐름과는 약간의 차이가 발생했습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 수능 최저 기준에 대한 정보를 제공하지만, 원본 텍스트의 핵심 사실인 3.92 점수의 합격 가능성에 대한 명확한 진술을 포함하지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 핵심 정보를 충분히 반영하지 못하고 있어 전반적인 품질이 다소 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있으며, 적절한 맥락에서 정보를 제공합니다. 그러나 수능 최저 기준에 대한 언급이 원본의 의미와는 다소 다르게 해석될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 언어로 작성되어 있습니다. 그러나 일부 문장이 길어질 경우 이해하기 어려울 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>0.7319193713228818</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>3.92라는 점수를 화학환경공학부(일반학생전형)에 지원하는 경우, 지원이 가능한지 판단하기 위해서는 해당 학과의 수능 최저 기준을 확인해야 합니다.
+현재 제공된 정보에서 화학환경공학부(일반학생전형)의 수능 최저 기준은 없습니다. 따라서 수능 최저 기준이 없거나, 지원자의 수능 점수가 해당 학과의 수능 최저 기준을 충족하는 경우에만 지원 가능합니다.
+수능 최저 기준이 없는 경우에는 주로 국어, 수학, 영어 등 각 과목별로 특정한 점수를 요구하지 않거나, 특정한 등급 이상을 요구할 수 있습니다. 따라서 3.92라는 점수가 해당 학과의 수능 최저 기준을 충족하는지 확인해야 합니다.
+만약 수능 최저 기준이 있는 경우에는 그 기준을 충족하는지 확인해야 합니다. 만약 수능 최저 기준이 없거나, 3.92가 해당 기준을 충족한다면 지원 가능합니다.
+더 자세한 정보를 얻기 위해서는 동의대학교의 공식 웹사이트(https://ipsi. deu.ac.kr/main.do)를 참조하거나, 학교 관계자에게 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교 화학환경공학부의 수능 일반학생전형에 대한 구체적인 정보를 제공하지 않고, 최저 기준 점수에 대한 정보가 없다고 언급하고 있습니다. 그러나 원본 텍스트에서는 귀하의 성적이 최초합격자의 평균값보다 높다고 명시하고 있어, 합격 가능성이 높다고 판단하고 있습니다. 이로 인해 사실관계가 왜곡되었습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일치하지 않습니다. 원본 텍스트는 귀하의 성적이 합격 가능성이 높다고 판단하고 있지만, 생성된 응답은 그러한 판단을 부정하고 있습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 동의대학교 화학환경공학부의 합격 가능성에 대한 질문에 대해 관련된 정보를 제공하고 있으나, 원본 텍스트의 핵심 내용을 반영하지 못하고 있습니다. 따라서 관련성은 있지만, 완전하지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다. 원본 텍스트의 결론과 상반된 내용을 포함하고 있어 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 귀하의 성적에 대한 판단을 부정하고 있습니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실관계, 일관성, 정확성에서 낮은 점수를 받았습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 어긋나 있습니다. 따라서 의미적 적절성은 보통 수준입니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>0.7034964362483197</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.25인데 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 화학환경공학부의 수능 일반학생전형에 대한 최저 기준 정보가 제공되지 않았습니다. 따라서 정시 성적이 4.25인 경우, 해당 학과와 전형에 대해 합격 가능성을 판단하기 위해서는 다음과 같은 정보가 필요합니다:
+1. **2024학년도 동의대학교 화학환경공학부 수능 일반학생전형의 최저 기준 점수**를 확인해야 합니다.
+2. **성적 변환 방법 및 평균 점수와 표준 편차** 등이 필요합니다.
+현재 제공된 정보만으로는 합격 가능성을 정확히 판단하기 어렵습니다. 따라서, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 최신의 전형요소 반영비율과 최저 기준 점수 등을 확인하시기 바랍니다.
+또한, 해당 정보가 변경될 수 있으므로, 공식 홈페이지에서 가장 최신 정보를 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 4.2라는 점수가 높은 점수라고 언급하고 있지만, 영화학과의 평균 성적과 비교할 때 정확한 정보가 부족합니다. 또한, 영어 등급에 대한 언급이 평균 3.80 이상이라고 되어 있으나, 원문에서는 3.66이 평균으로 제시되어 있습니다. 이로 인해 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 일부 일치하지만, 평균 성적에 대한 정보가 다르게 제시되어 있어 일관성이 떨어집니다. 특히, 영어 등급에 대한 언급이 원문과 상충하여 점수를 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변으로서 관련된 정보를 제공하고 있지만, 원문에서 제시된 평균 성적에 대한 구체적인 수치가 부족하여 완전한 관련성을 갖추지 못했습니다. 따라서 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있어 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 내용이 중복되거나 불필요하게 길어져서 완전한 일관성을 잃을 수 있어 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 평균 성적에 대한 수치가 원문과 다르게 제시되어 있어 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질 점수는 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 의미를 잘 전달하고 있으나, 일부 정보가 부정확하여 완전한 의미 전달에는 부족함이 있어 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 문장이 길어져서 혼란을 줄 수 있어 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>0.6749008528375156</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 상당히 높은 점수입니다. 하지만 합격 여부는 여러 요소에 따라 결정되므로 단순한 점수만으로 판단하기는 어렵습니다.
+영화학과의 경우, 정시전형에서 주요 평가 항목들은 다음과 같습니다:
+1. **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 이 부분은 일반적으로 높은 점수가 요구되며, 4.2는 좋은 성적입니다.
+2. **영어 등급**: 영화학과에서는 영어 능력이 중요하므로, 평균 3.80 이상의 영어 등급을 보유하고 있다면 이 부분에서도 우수한 점수가 나올 것입니다.
+3. **수능 4개 영역 등급**: 이 부분도 고려해야 하며, 평균 4.35 이상의 수능 등급이 나온다면 이 또한 좋은 성적입니다.
+또한 서류평가와 면접에서도 합격 여부에 큰 영향을 미칠 수 있으므로, 다음과 같은 준비를 해보세요:
+- **서류평가**: 학교생활기록부에서 보여줄 수 있는 공동체역량과 학업역량, 전공적합성 등이 중요합니다. 특히 영화학과와 관련된 활동이나 경험을 잘 기재해야 합니다.
+- **면접**: 면접에서는 자신의 열정과 목표를 명확히 표현하고, 영화에 대한 이해도와 관심을 보여주는 것이 좋습니다.
+결론적으로 4.2라는 점수는 좋은 성적입니다만, 합격 여부는 여러 요소가综上所述，关于这位学生是否能被电影学专业录取的问题，仅凭4.2的分数无法做出准确判断。还需要考虑其他因素如学业能力、课外活动经历以及面试表现等。建议详细查看该专业的具体要求，并做好充分准备。
+如果您需要更详细的指导或有其他问题，请告诉我！</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 면접 절차를 정확하게 나열하고 있으며, 추가적으로 면접 진행 방식에 대한 정보를 제공하고 있습니다. 그러나 원본 텍스트에 포함되지 않은 세부사항이 추가되어 있어 완벽한 일치를 이루지 않습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 대체로 일치하지만, 추가된 정보가 원본 텍스트와의 일관성을 약간 떨어뜨립니다. 그러나 전반적으로 일관된 정보를 제공합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 면접 절차에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르며 읽기 쉽지만, 약간의 어색한 표현이 있을 수 있습니다. 전반적으로 유창합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 면접 절차와 관련된 정보가 잘 연결되어 있습니다. 그러나 추가된 정보가 약간의 흐름을 방해할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 추가된 정보가 원본에 포함되지 않은 점에서 약간의 정확성 저하가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 세부사항에서 약간의 차이가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 원본의 의미를 약간 변경할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하지만, 추가된 정보로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>0.8707463778172454</v>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답 (제출서류 진위 여부 등)
+8. 퇴실
+이 절차를 따르며, 면접은 입학사정관 2인이 평가위원으로 참여하여 수험생을 대상으로 개별적 평가를 진행합니다.</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
